--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095759.954356019</v>
+        <v>1090454.757256853</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24971122.79486816</v>
+        <v>24971122.79486815</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9242970.729343532</v>
+        <v>9242970.72934353</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4968154.201679008</v>
+        <v>4968154.201679009</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3547746624482</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>53.97476726307436</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.8483706517646</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>87.00113504422637</v>
       </c>
       <c r="T12" t="n">
-        <v>153.4281741504329</v>
+        <v>137.3623426363292</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3067869040161</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>153.1090812465489</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I13" t="n">
-        <v>88.15937071340832</v>
+        <v>22.24635867659357</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.01587384344467</v>
       </c>
       <c r="S13" t="n">
         <v>168.8677831400427</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3137985133687</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.1928423830254</v>
+        <v>279.921151684192</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T14" t="n">
-        <v>134.5742128223148</v>
+        <v>211.2151296334828</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3296256771501</v>
+        <v>55.0517860779732</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>104.8483706517646</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>87.00113504422637</v>
       </c>
       <c r="T15" t="n">
-        <v>153.4281741504329</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>195.3067869040161</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>90.186634415166</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>93.62220815016528</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>114.1791027433525</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01587384344467</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.8677831400427</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3137985133687</v>
@@ -1824,16 +1824,16 @@
         <v>279.921151684192</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>12.17364823089366</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>384.6159443177211</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.5098024029585</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6377369419095</v>
+        <v>107.6211299501545</v>
       </c>
       <c r="H17" t="n">
         <v>287.2834816384828</v>
       </c>
       <c r="I17" t="n">
-        <v>8.257397197892317</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>94.01711652587002</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>81.58051919003476</v>
+        <v>104.8483706517646</v>
       </c>
       <c r="H18" t="n">
-        <v>59.68801417980697</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5111650684215</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.01587384344469</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.8677831400427</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3137985133687</v>
+        <v>188.4077378849986</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.921151684192</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>74.64241777909173</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>406.5098024029585</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7826911295381</v>
+        <v>406.5098024029585</v>
       </c>
       <c r="G20" t="n">
         <v>402.6377369419095</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>287.2834816384828</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.27887866643719</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2151296334828</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>113.1356019651452</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2171,10 +2171,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8483706517646</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>59.68801417980697</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.00113504422637</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>153.4281741504329</v>
@@ -2219,16 +2219,16 @@
         <v>195.3067869040161</v>
       </c>
       <c r="V21" t="n">
-        <v>85.07600471345283</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>131.0525782171277</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>279.921151684192</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>105.3707224312052</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>325.5809914100469</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6377369419095</v>
+        <v>358.44466849164</v>
       </c>
       <c r="H23" t="n">
-        <v>287.2834816384828</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.257397197892303</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2151296334828</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>67.78109039566972</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>6.060621151894922</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.4281741504329</v>
       </c>
       <c r="U24" t="n">
         <v>195.3067869040161</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6792917527193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.01587384344468</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U25" t="n">
-        <v>275.9973073463825</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>263.4389561962852</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>371.508395499143</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6377369419095</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>31.60479511269135</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.03129617490076</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
@@ -2645,13 +2645,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>36.94552420327792</v>
       </c>
       <c r="G27" t="n">
         <v>104.8483706517646</v>
       </c>
       <c r="H27" t="n">
-        <v>59.68801417980697</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>153.4281741504329</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3067869040161</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2699,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.14569379616309</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8677831400427</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>226.1462359237996</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.6377369419095</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2151296334828</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3296256771501</v>
       </c>
       <c r="V29" t="n">
-        <v>335.4788241458486</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>20.19468723219838</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>57.75834733347581</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>104.8483706517646</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.00113504422637</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>153.4281741504329</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3067869040161</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2939,7 +2939,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>79.79061586837852</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>78.43977417599835</v>
       </c>
       <c r="C31" t="n">
-        <v>143.797848647486</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.8677831400427</v>
       </c>
       <c r="T31" t="n">
         <v>233.3137985133687</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>81.21938719727677</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6377369419095</v>
+        <v>359.3789328402015</v>
       </c>
       <c r="H32" t="n">
-        <v>287.2834816384828</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3116,13 +3116,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.8483706517646</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>59.68801417980697</v>
@@ -3173,10 +3173,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>145.4223547685149</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.40159528578741</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>58.47367036771755</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>279.921151684192</v>
       </c>
       <c r="V34" t="n">
-        <v>227.1236504611957</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>81.8872257494443</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="G35" t="n">
         <v>402.6377369419095</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>214.6120678434638</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>211.2151296334828</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.68801417980697</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>181.9604693070527</v>
+        <v>207.059060552156</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.6792917527193</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U37" t="n">
         <v>279.921151684192</v>
       </c>
       <c r="V37" t="n">
-        <v>183.1938329828009</v>
+        <v>193.1930380477822</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>358.5402915796217</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6377369419095</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>372.1895725029105</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.8483706517646</v>
+        <v>86.51906066014158</v>
       </c>
       <c r="H39" t="n">
-        <v>59.68801417980697</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.00113504422637</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>153.4281741504329</v>
       </c>
       <c r="U39" t="n">
         <v>195.3067869040161</v>
       </c>
       <c r="V39" t="n">
-        <v>92.11384565235217</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.70278866860554</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1220505339534</v>
+        <v>58.47367036771711</v>
       </c>
       <c r="I40" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.01587384344468</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.921151684192</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>191.8070349959012</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.56543247175318</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>91.80444950521608</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.68801417980697</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>10.77371419445326</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T42" t="n">
         <v>153.4281741504329</v>
@@ -3878,10 +3878,10 @@
         <v>195.3067869040161</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3900,13 +3900,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>143.6889017026367</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.01587384344468</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.8677831400427</v>
+        <v>7.464140289948658</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3137985133687</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>12.95064365943013</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>368.0164112126633</v>
       </c>
       <c r="F44" t="n">
         <v>406.5098024029585</v>
@@ -3994,7 +3994,7 @@
         <v>402.6377369419095</v>
       </c>
       <c r="H44" t="n">
-        <v>287.2834816384828</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>72.8825686338063</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.8483706517646</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.00113504422637</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.4281741504329</v>
       </c>
       <c r="U45" t="n">
         <v>195.3067869040161</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>125.0391128523541</v>
       </c>
     </row>
     <row r="46">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.01587384344468</v>
+        <v>16.10830044103056</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>137.5248170657347</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.5207841922367</v>
+        <v>436.9847140991762</v>
       </c>
       <c r="C11" t="n">
-        <v>32.5207841922367</v>
+        <v>436.9847140991762</v>
       </c>
       <c r="D11" t="n">
         <v>32.5207841922367</v>
@@ -5041,10 +5041,10 @@
         <v>32.5207841922367</v>
       </c>
       <c r="J11" t="n">
-        <v>128.2547386528483</v>
+        <v>128.2547386528479</v>
       </c>
       <c r="K11" t="n">
-        <v>292.2842198113417</v>
+        <v>292.2842198113412</v>
       </c>
       <c r="L11" t="n">
         <v>510.7225092198169</v>
@@ -5068,25 +5068,25 @@
         <v>1626.039209611835</v>
       </c>
       <c r="S11" t="n">
-        <v>1626.039209611835</v>
+        <v>1571.519242679437</v>
       </c>
       <c r="T11" t="n">
-        <v>1626.039209611835</v>
+        <v>1571.519242679437</v>
       </c>
       <c r="U11" t="n">
-        <v>1369.140597816734</v>
+        <v>1571.519242679437</v>
       </c>
       <c r="V11" t="n">
-        <v>1019.303043153215</v>
+        <v>1221.681688015917</v>
       </c>
       <c r="W11" t="n">
-        <v>635.5427422883834</v>
+        <v>837.921387151086</v>
       </c>
       <c r="X11" t="n">
-        <v>234.8993444573359</v>
+        <v>837.921387151086</v>
       </c>
       <c r="Y11" t="n">
-        <v>234.8993444573359</v>
+        <v>436.9847140991762</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>501.875996371251</v>
+        <v>512.865709049066</v>
       </c>
       <c r="C12" t="n">
-        <v>367.8809251201967</v>
+        <v>378.8706377980117</v>
       </c>
       <c r="D12" t="n">
-        <v>367.8809251201967</v>
+        <v>261.9734800174041</v>
       </c>
       <c r="E12" t="n">
-        <v>247.3881091125247</v>
+        <v>141.4806640097321</v>
       </c>
       <c r="F12" t="n">
-        <v>138.4282292950293</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="G12" t="n">
         <v>32.5207841922367</v>
@@ -5120,25 +5120,25 @@
         <v>32.5207841922367</v>
       </c>
       <c r="J12" t="n">
-        <v>81.9180436081497</v>
+        <v>325.586447582783</v>
       </c>
       <c r="K12" t="n">
-        <v>197.9985318432598</v>
+        <v>441.6669358178931</v>
       </c>
       <c r="L12" t="n">
-        <v>600.4432362221889</v>
+        <v>616.512106639834</v>
       </c>
       <c r="M12" t="n">
-        <v>971.7173607842186</v>
+        <v>828.3877056848819</v>
       </c>
       <c r="N12" t="n">
-        <v>1195.036177671345</v>
+        <v>1051.706522572008</v>
       </c>
       <c r="O12" t="n">
-        <v>1390.330249195378</v>
+        <v>1247.000594096041</v>
       </c>
       <c r="P12" t="n">
-        <v>1539.241067194367</v>
+        <v>1395.911412095031</v>
       </c>
       <c r="Q12" t="n">
         <v>1618.566730931194</v>
@@ -5150,22 +5150,22 @@
         <v>1538.159275223728</v>
       </c>
       <c r="T12" t="n">
-        <v>1383.181321536422</v>
+        <v>1399.409434176931</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.181321536422</v>
+        <v>1202.129851445601</v>
       </c>
       <c r="V12" t="n">
-        <v>1169.469794529456</v>
+        <v>1202.129851445601</v>
       </c>
       <c r="W12" t="n">
-        <v>956.2366262657844</v>
+        <v>988.8966831819298</v>
       </c>
       <c r="X12" t="n">
-        <v>801.5809886430077</v>
+        <v>812.5707013208226</v>
       </c>
       <c r="Y12" t="n">
-        <v>642.1790290068377</v>
+        <v>653.1687416846527</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.1586707150933</v>
+        <v>854.3708295334991</v>
       </c>
       <c r="C13" t="n">
-        <v>281.0652982768098</v>
+        <v>683.2774570952156</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5706535997199</v>
+        <v>523.7828124181256</v>
       </c>
       <c r="E13" t="n">
-        <v>121.5706535997199</v>
+        <v>362.871997286445</v>
       </c>
       <c r="F13" t="n">
-        <v>121.5706535997199</v>
+        <v>362.871997286445</v>
       </c>
       <c r="G13" t="n">
-        <v>121.5706535997199</v>
+        <v>196.5292783443043</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5706535997199</v>
+        <v>54.99185356253324</v>
       </c>
       <c r="I13" t="n">
         <v>32.5207841922367</v>
       </c>
       <c r="J13" t="n">
-        <v>44.49735856772529</v>
+        <v>44.4973585677253</v>
       </c>
       <c r="K13" t="n">
-        <v>96.12593687663343</v>
+        <v>96.12593687663345</v>
       </c>
       <c r="L13" t="n">
-        <v>488.2837013190706</v>
+        <v>174.3045900840476</v>
       </c>
       <c r="M13" t="n">
-        <v>890.7284056979997</v>
+        <v>576.7492944629769</v>
       </c>
       <c r="N13" t="n">
-        <v>1174.617438754645</v>
+        <v>979.193998841906</v>
       </c>
       <c r="O13" t="n">
-        <v>1559.920302132154</v>
+        <v>1364.496862219416</v>
       </c>
       <c r="P13" t="n">
         <v>1612.292479039275</v>
@@ -5223,28 +5223,28 @@
         <v>1626.039209611835</v>
       </c>
       <c r="R13" t="n">
-        <v>1626.039209611835</v>
+        <v>1581.578730982093</v>
       </c>
       <c r="S13" t="n">
-        <v>1455.46569128856</v>
+        <v>1411.005212658818</v>
       </c>
       <c r="T13" t="n">
-        <v>1219.795187739702</v>
+        <v>1411.005212658818</v>
       </c>
       <c r="U13" t="n">
-        <v>955.9640338174543</v>
+        <v>1128.256574593977</v>
       </c>
       <c r="V13" t="n">
-        <v>955.9640338174543</v>
+        <v>854.3708295334991</v>
       </c>
       <c r="W13" t="n">
-        <v>676.8943693263286</v>
+        <v>854.3708295334991</v>
       </c>
       <c r="X13" t="n">
-        <v>676.8943693263286</v>
+        <v>854.3708295334991</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.1586707150933</v>
+        <v>854.3708295334991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>439.2255689820443</v>
+        <v>857.6909649191705</v>
       </c>
       <c r="C14" t="n">
-        <v>439.2255689820443</v>
+        <v>447.5663742324405</v>
       </c>
       <c r="D14" t="n">
-        <v>439.2255689820443</v>
+        <v>447.5663742324405</v>
       </c>
       <c r="E14" t="n">
-        <v>439.2255689820443</v>
+        <v>447.5663742324405</v>
       </c>
       <c r="F14" t="n">
-        <v>439.2255689820443</v>
+        <v>447.5663742324405</v>
       </c>
       <c r="G14" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263296</v>
       </c>
       <c r="H14" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263296</v>
       </c>
       <c r="I14" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J14" t="n">
-        <v>128.254738652848</v>
+        <v>128.2547386528483</v>
       </c>
       <c r="K14" t="n">
-        <v>292.2842198113412</v>
+        <v>292.2842198113415</v>
       </c>
       <c r="L14" t="n">
-        <v>510.7225092198166</v>
+        <v>510.7225092198167</v>
       </c>
       <c r="M14" t="n">
         <v>766.6033169040347</v>
@@ -5305,25 +5305,25 @@
         <v>1626.039209611835</v>
       </c>
       <c r="S14" t="n">
-        <v>1626.039209611835</v>
+        <v>1536.868625100282</v>
       </c>
       <c r="T14" t="n">
-        <v>1490.105661306466</v>
+        <v>1323.520009308885</v>
       </c>
       <c r="U14" t="n">
-        <v>1233.207049511365</v>
+        <v>1267.91214458366</v>
       </c>
       <c r="V14" t="n">
-        <v>1233.207049511365</v>
+        <v>1267.91214458366</v>
       </c>
       <c r="W14" t="n">
-        <v>849.4467486465337</v>
+        <v>1267.91214458366</v>
       </c>
       <c r="X14" t="n">
-        <v>849.4467486465337</v>
+        <v>1267.91214458366</v>
       </c>
       <c r="Y14" t="n">
-        <v>849.4467486465337</v>
+        <v>1267.91214458366</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>618.7731541518585</v>
+        <v>679.0640775658051</v>
       </c>
       <c r="C15" t="n">
-        <v>484.7780829008043</v>
+        <v>545.0690063147507</v>
       </c>
       <c r="D15" t="n">
-        <v>367.8809251201967</v>
+        <v>428.1718485341431</v>
       </c>
       <c r="E15" t="n">
-        <v>247.3881091125247</v>
+        <v>307.6790325264711</v>
       </c>
       <c r="F15" t="n">
-        <v>138.4282292950293</v>
+        <v>198.7191527089757</v>
       </c>
       <c r="G15" t="n">
-        <v>32.52078419223669</v>
+        <v>92.81170760618313</v>
       </c>
       <c r="H15" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I15" t="n">
-        <v>48.71935122418728</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J15" t="n">
-        <v>98.11661064010028</v>
+        <v>325.586447582783</v>
       </c>
       <c r="K15" t="n">
-        <v>214.1970988752104</v>
+        <v>441.666935817893</v>
       </c>
       <c r="L15" t="n">
-        <v>389.0422696971513</v>
+        <v>616.512106639834</v>
       </c>
       <c r="M15" t="n">
-        <v>600.9178687421992</v>
+        <v>828.3877056848818</v>
       </c>
       <c r="N15" t="n">
-        <v>824.2366856293256</v>
+        <v>1051.706522572008</v>
       </c>
       <c r="O15" t="n">
-        <v>1019.530757153358</v>
+        <v>1247.000594096041</v>
       </c>
       <c r="P15" t="n">
-        <v>1168.441575152348</v>
+        <v>1451.271350717386</v>
       </c>
       <c r="Q15" t="n">
         <v>1530.597014454212</v>
@@ -5387,22 +5387,22 @@
         <v>1538.159275223727</v>
       </c>
       <c r="T15" t="n">
-        <v>1383.181321536421</v>
+        <v>1538.159275223727</v>
       </c>
       <c r="U15" t="n">
-        <v>1185.901738805092</v>
+        <v>1340.879692492398</v>
       </c>
       <c r="V15" t="n">
-        <v>1185.901738805092</v>
+        <v>1127.168165485432</v>
       </c>
       <c r="W15" t="n">
-        <v>1094.804128284722</v>
+        <v>913.9349972217607</v>
       </c>
       <c r="X15" t="n">
-        <v>918.4781464236152</v>
+        <v>913.9349972217607</v>
       </c>
       <c r="Y15" t="n">
-        <v>759.0761867874452</v>
+        <v>819.3671102013917</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>613.5164065539939</v>
+        <v>358.3581478114673</v>
       </c>
       <c r="C16" t="n">
-        <v>613.5164065539939</v>
+        <v>358.3581478114673</v>
       </c>
       <c r="D16" t="n">
-        <v>454.0217618769039</v>
+        <v>198.8635031343774</v>
       </c>
       <c r="E16" t="n">
-        <v>338.6893348634165</v>
+        <v>198.8635031343774</v>
       </c>
       <c r="F16" t="n">
-        <v>174.0582089740078</v>
+        <v>198.8635031343774</v>
       </c>
       <c r="G16" t="n">
-        <v>174.0582089740078</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="H16" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I16" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J16" t="n">
         <v>109.4987221990617</v>
       </c>
       <c r="K16" t="n">
-        <v>161.1273005079698</v>
+        <v>165.2754165835351</v>
       </c>
       <c r="L16" t="n">
-        <v>553.285064950407</v>
+        <v>243.4540697909492</v>
       </c>
       <c r="M16" t="n">
-        <v>955.729769329336</v>
+        <v>645.8987741698784</v>
       </c>
       <c r="N16" t="n">
-        <v>1358.174473708265</v>
+        <v>1048.343478548808</v>
       </c>
       <c r="O16" t="n">
         <v>1433.646341926317</v>
@@ -5460,28 +5460,28 @@
         <v>1626.039209611835</v>
       </c>
       <c r="R16" t="n">
-        <v>1581.578730982093</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S16" t="n">
-        <v>1411.005212658817</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T16" t="n">
-        <v>1175.33470910996</v>
+        <v>1390.368706062978</v>
       </c>
       <c r="U16" t="n">
-        <v>892.5860710451195</v>
+        <v>1107.620067998137</v>
       </c>
       <c r="V16" t="n">
-        <v>892.5860710451195</v>
+        <v>833.7343229376593</v>
       </c>
       <c r="W16" t="n">
-        <v>613.5164065539939</v>
+        <v>821.4377085630192</v>
       </c>
       <c r="X16" t="n">
-        <v>613.5164065539939</v>
+        <v>583.0938464227027</v>
       </c>
       <c r="Y16" t="n">
-        <v>613.5164065539939</v>
+        <v>358.3581478114673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1148.367671243997</v>
+        <v>431.4143312514664</v>
       </c>
       <c r="C17" t="n">
-        <v>1148.367671243997</v>
+        <v>431.4143312514664</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.367671243997</v>
+        <v>431.4143312514664</v>
       </c>
       <c r="E17" t="n">
-        <v>1148.367671243997</v>
+        <v>431.4143312514664</v>
       </c>
       <c r="F17" t="n">
-        <v>737.751709220807</v>
+        <v>431.4143312514664</v>
       </c>
       <c r="G17" t="n">
-        <v>331.0469244309995</v>
+        <v>322.7061191806033</v>
       </c>
       <c r="H17" t="n">
-        <v>40.86158944263296</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I17" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J17" t="n">
-        <v>128.2547386528477</v>
+        <v>128.2547386528481</v>
       </c>
       <c r="K17" t="n">
-        <v>292.2842198113409</v>
+        <v>292.2842198113415</v>
       </c>
       <c r="L17" t="n">
-        <v>510.7225092198161</v>
+        <v>510.7225092198171</v>
       </c>
       <c r="M17" t="n">
-        <v>766.6033169040344</v>
+        <v>766.6033169040352</v>
       </c>
       <c r="N17" t="n">
-        <v>1028.493135965159</v>
+        <v>1028.49313596516</v>
       </c>
       <c r="O17" t="n">
-        <v>1270.387484978416</v>
+        <v>1270.387484978417</v>
       </c>
       <c r="P17" t="n">
         <v>1462.8658100898</v>
@@ -5539,28 +5539,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R17" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S17" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T17" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="U17" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="V17" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="W17" t="n">
-        <v>1536.868625100281</v>
+        <v>1242.278908747003</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.868625100281</v>
+        <v>841.6355109159558</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.868625100281</v>
+        <v>841.6355109159558</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>655.5611973014314</v>
+        <v>459.2520512626979</v>
       </c>
       <c r="C18" t="n">
-        <v>521.5661260503771</v>
+        <v>364.2852668931322</v>
       </c>
       <c r="D18" t="n">
-        <v>404.6689682697695</v>
+        <v>247.3881091125247</v>
       </c>
       <c r="E18" t="n">
-        <v>284.1761522620975</v>
+        <v>247.3881091125247</v>
       </c>
       <c r="F18" t="n">
-        <v>175.2162724446021</v>
+        <v>138.4282292950293</v>
       </c>
       <c r="G18" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="H18" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I18" t="n">
-        <v>48.71935122418726</v>
+        <v>48.71935122418728</v>
       </c>
       <c r="J18" t="n">
-        <v>98.11661064010025</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K18" t="n">
-        <v>214.1970988752103</v>
+        <v>457.8655028498436</v>
       </c>
       <c r="L18" t="n">
-        <v>464.7214124072925</v>
+        <v>671.8720452621892</v>
       </c>
       <c r="M18" t="n">
-        <v>676.5970114523403</v>
+        <v>883.747644307237</v>
       </c>
       <c r="N18" t="n">
-        <v>899.9158283394668</v>
+        <v>1107.066461194363</v>
       </c>
       <c r="O18" t="n">
         <v>1302.360532718396</v>
       </c>
       <c r="P18" t="n">
-        <v>1451.271350717385</v>
+        <v>1451.271350717386</v>
       </c>
       <c r="Q18" t="n">
         <v>1530.597014454212</v>
       </c>
       <c r="R18" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S18" t="n">
         <v>1538.159275223727</v>
@@ -5630,16 +5630,16 @@
         <v>1185.901738805092</v>
       </c>
       <c r="V18" t="n">
-        <v>972.1902117981253</v>
+        <v>972.1902117981258</v>
       </c>
       <c r="W18" t="n">
-        <v>972.1902117981253</v>
+        <v>758.9570435344546</v>
       </c>
       <c r="X18" t="n">
-        <v>795.8642299370181</v>
+        <v>758.9570435344546</v>
       </c>
       <c r="Y18" t="n">
-        <v>795.8642299370181</v>
+        <v>599.5550838982846</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.52078419223668</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="C19" t="n">
-        <v>32.52078419223668</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="D19" t="n">
-        <v>32.52078419223668</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="E19" t="n">
-        <v>32.52078419223668</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="F19" t="n">
-        <v>32.52078419223668</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="G19" t="n">
-        <v>32.52078419223668</v>
+        <v>263.1080783814909</v>
       </c>
       <c r="H19" t="n">
-        <v>32.52078419223668</v>
+        <v>121.5706535997198</v>
       </c>
       <c r="I19" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J19" t="n">
         <v>109.4987221990617</v>
@@ -5679,46 +5679,46 @@
         <v>367.4074940936839</v>
       </c>
       <c r="L19" t="n">
-        <v>445.586147301098</v>
+        <v>759.5652585361211</v>
       </c>
       <c r="M19" t="n">
-        <v>700.0760501155005</v>
+        <v>843.3132915080582</v>
       </c>
       <c r="N19" t="n">
-        <v>1102.520754494429</v>
+        <v>928.2522814338894</v>
       </c>
       <c r="O19" t="n">
-        <v>1172.748858453198</v>
+        <v>1313.555144811399</v>
       </c>
       <c r="P19" t="n">
-        <v>1486.018518833437</v>
+        <v>1612.292479039274</v>
       </c>
       <c r="Q19" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="R19" t="n">
-        <v>1581.578730982092</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S19" t="n">
-        <v>1411.005212658817</v>
+        <v>1455.465691288559</v>
       </c>
       <c r="T19" t="n">
-        <v>1175.334709109959</v>
+        <v>1265.154844940076</v>
       </c>
       <c r="U19" t="n">
-        <v>1175.334709109959</v>
+        <v>982.4062068752353</v>
       </c>
       <c r="V19" t="n">
-        <v>901.4489640494814</v>
+        <v>708.5204618147573</v>
       </c>
       <c r="W19" t="n">
-        <v>622.3792995583558</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="X19" t="n">
-        <v>384.0354374180392</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.2997388068039</v>
+        <v>429.4507973236316</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="C20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="D20" t="n">
-        <v>716.7838428502646</v>
+        <v>1550.642828016792</v>
       </c>
       <c r="E20" t="n">
-        <v>716.7838428502646</v>
+        <v>1140.026865993601</v>
       </c>
       <c r="F20" t="n">
-        <v>439.2255689820443</v>
+        <v>729.4109039704108</v>
       </c>
       <c r="G20" t="n">
-        <v>32.52078419223669</v>
+        <v>322.7061191806033</v>
       </c>
       <c r="H20" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I20" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="J20" t="n">
         <v>128.2547386528479</v>
       </c>
       <c r="K20" t="n">
-        <v>292.284219811341</v>
+        <v>292.2842198113411</v>
       </c>
       <c r="L20" t="n">
-        <v>510.7225092198162</v>
+        <v>510.7225092198164</v>
       </c>
       <c r="M20" t="n">
-        <v>766.6033169040344</v>
+        <v>766.6033169040343</v>
       </c>
       <c r="N20" t="n">
         <v>1028.493135965159</v>
@@ -5779,25 +5779,25 @@
         <v>1626.039209611834</v>
       </c>
       <c r="S20" t="n">
-        <v>1536.868625100282</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T20" t="n">
-        <v>1323.520009308885</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="U20" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="V20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="W20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="X20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="Y20" t="n">
-        <v>716.7838428502646</v>
+        <v>1626.039209611834</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>570.1041977483096</v>
+        <v>573.1566324630124</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1091264972553</v>
+        <v>439.1615612119581</v>
       </c>
       <c r="D21" t="n">
-        <v>319.2119687166477</v>
+        <v>322.2644034313506</v>
       </c>
       <c r="E21" t="n">
-        <v>198.7191527089757</v>
+        <v>201.7715874236785</v>
       </c>
       <c r="F21" t="n">
-        <v>198.7191527089757</v>
+        <v>92.81170760618312</v>
       </c>
       <c r="G21" t="n">
         <v>92.81170760618312</v>
       </c>
       <c r="H21" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I21" t="n">
         <v>48.71935122418728</v>
       </c>
       <c r="J21" t="n">
-        <v>98.11661064010025</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K21" t="n">
-        <v>500.5613150190293</v>
+        <v>457.8655028498436</v>
       </c>
       <c r="L21" t="n">
-        <v>675.4064858409702</v>
+        <v>632.7106736717844</v>
       </c>
       <c r="M21" t="n">
-        <v>887.282084886018</v>
+        <v>844.5862727168322</v>
       </c>
       <c r="N21" t="n">
-        <v>1110.600901773144</v>
+        <v>1067.905089603959</v>
       </c>
       <c r="O21" t="n">
-        <v>1305.894973297177</v>
+        <v>1263.199161127991</v>
       </c>
       <c r="P21" t="n">
-        <v>1454.805791296166</v>
+        <v>1412.109979126981</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.566730931193</v>
+        <v>1530.597014454212</v>
       </c>
       <c r="R21" t="n">
         <v>1626.039209611834</v>
       </c>
       <c r="S21" t="n">
-        <v>1538.159275223727</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T21" t="n">
-        <v>1383.181321536421</v>
+        <v>1471.061255924528</v>
       </c>
       <c r="U21" t="n">
-        <v>1185.901738805092</v>
+        <v>1273.781673193199</v>
       </c>
       <c r="V21" t="n">
-        <v>1099.966380508675</v>
+        <v>1060.070146186233</v>
       </c>
       <c r="W21" t="n">
-        <v>886.7332122450034</v>
+        <v>846.8369779225615</v>
       </c>
       <c r="X21" t="n">
-        <v>710.4072303838963</v>
+        <v>846.8369779225615</v>
       </c>
       <c r="Y21" t="n">
-        <v>710.4072303838963</v>
+        <v>687.4350182863915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>281.0652982768098</v>
+        <v>683.9000888325565</v>
       </c>
       <c r="C22" t="n">
-        <v>281.0652982768098</v>
+        <v>683.9000888325565</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5706535997198</v>
+        <v>524.4054441554666</v>
       </c>
       <c r="E22" t="n">
-        <v>121.5706535997198</v>
+        <v>363.4946290237861</v>
       </c>
       <c r="F22" t="n">
-        <v>121.5706535997198</v>
+        <v>198.8635031343774</v>
       </c>
       <c r="G22" t="n">
-        <v>121.5706535997198</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5706535997198</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I22" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="J22" t="n">
-        <v>109.4987221990616</v>
+        <v>44.49735856772526</v>
       </c>
       <c r="K22" t="n">
-        <v>367.4074940936839</v>
+        <v>221.8836475635146</v>
       </c>
       <c r="L22" t="n">
-        <v>558.5288292096895</v>
+        <v>300.0623007709287</v>
       </c>
       <c r="M22" t="n">
-        <v>960.9735335886186</v>
+        <v>702.5070051498577</v>
       </c>
       <c r="N22" t="n">
-        <v>1363.418237967548</v>
+        <v>787.4459950756889</v>
       </c>
       <c r="O22" t="n">
-        <v>1433.646341926317</v>
+        <v>1172.748858453198</v>
       </c>
       <c r="P22" t="n">
         <v>1486.018518833437</v>
@@ -5937,25 +5937,25 @@
         <v>1626.039209611834</v>
       </c>
       <c r="S22" t="n">
-        <v>1493.662867978372</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T22" t="n">
-        <v>1493.662867978372</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.914229913532</v>
+        <v>1343.290571546994</v>
       </c>
       <c r="V22" t="n">
-        <v>1210.914229913532</v>
+        <v>1069.404826486516</v>
       </c>
       <c r="W22" t="n">
-        <v>931.844565422406</v>
+        <v>790.3351619953901</v>
       </c>
       <c r="X22" t="n">
-        <v>693.5007032820895</v>
+        <v>790.3351619953901</v>
       </c>
       <c r="Y22" t="n">
-        <v>468.7650046708542</v>
+        <v>683.9000888325565</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1066.621397513784</v>
+        <v>1215.818029947345</v>
       </c>
       <c r="C23" t="n">
-        <v>1066.621397513784</v>
+        <v>1215.818029947345</v>
       </c>
       <c r="D23" t="n">
-        <v>1066.621397513784</v>
+        <v>1215.818029947345</v>
       </c>
       <c r="E23" t="n">
-        <v>737.751709220807</v>
+        <v>805.2020679241546</v>
       </c>
       <c r="F23" t="n">
-        <v>737.751709220807</v>
+        <v>394.586105900964</v>
       </c>
       <c r="G23" t="n">
-        <v>331.0469244309995</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="H23" t="n">
-        <v>40.86158944263295</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I23" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J23" t="n">
         <v>128.2547386528479</v>
       </c>
       <c r="K23" t="n">
-        <v>292.2842198113411</v>
+        <v>292.284219811341</v>
       </c>
       <c r="L23" t="n">
-        <v>510.7225092198162</v>
+        <v>510.7225092198163</v>
       </c>
       <c r="M23" t="n">
         <v>766.6033169040343</v>
@@ -6013,28 +6013,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R23" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S23" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T23" t="n">
-        <v>1323.520009308885</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="U23" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="V23" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="W23" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="X23" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="Y23" t="n">
-        <v>1066.621397513784</v>
+        <v>1626.039209611835</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>679.0640775658051</v>
+        <v>496.637596408557</v>
       </c>
       <c r="C24" t="n">
-        <v>545.0690063147507</v>
+        <v>496.637596408557</v>
       </c>
       <c r="D24" t="n">
         <v>428.1718485341431</v>
@@ -6062,58 +6062,58 @@
         <v>92.81170760618312</v>
       </c>
       <c r="H24" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I24" t="n">
-        <v>32.52078419223668</v>
+        <v>48.71935122418728</v>
       </c>
       <c r="J24" t="n">
-        <v>81.91804360814967</v>
+        <v>98.11661064010028</v>
       </c>
       <c r="K24" t="n">
-        <v>197.9985318432597</v>
+        <v>214.1970988752104</v>
       </c>
       <c r="L24" t="n">
-        <v>552.6911288842737</v>
+        <v>389.0422696971513</v>
       </c>
       <c r="M24" t="n">
-        <v>764.5667279293215</v>
+        <v>600.9178687421991</v>
       </c>
       <c r="N24" t="n">
-        <v>987.8855448164479</v>
+        <v>824.2366856293255</v>
       </c>
       <c r="O24" t="n">
-        <v>1390.330249195377</v>
+        <v>1019.530757153358</v>
       </c>
       <c r="P24" t="n">
-        <v>1539.241067194366</v>
+        <v>1168.441575152348</v>
       </c>
       <c r="Q24" t="n">
-        <v>1618.566730931193</v>
+        <v>1530.597014454212</v>
       </c>
       <c r="R24" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S24" t="n">
-        <v>1619.917370064466</v>
+        <v>1538.159275223727</v>
       </c>
       <c r="T24" t="n">
-        <v>1619.917370064466</v>
+        <v>1383.181321536421</v>
       </c>
       <c r="U24" t="n">
-        <v>1422.637787333136</v>
+        <v>1185.901738805092</v>
       </c>
       <c r="V24" t="n">
-        <v>1208.92626032617</v>
+        <v>1185.901738805092</v>
       </c>
       <c r="W24" t="n">
-        <v>995.6930920624989</v>
+        <v>972.6685705414208</v>
       </c>
       <c r="X24" t="n">
-        <v>819.3671102013917</v>
+        <v>796.3425886803136</v>
       </c>
       <c r="Y24" t="n">
-        <v>819.3671102013917</v>
+        <v>636.9406290441436</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>511.494300354432</v>
+        <v>612.0391431083592</v>
       </c>
       <c r="C25" t="n">
-        <v>340.4009279161485</v>
+        <v>612.0391431083592</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4009279161485</v>
+        <v>452.5444984312693</v>
       </c>
       <c r="E25" t="n">
-        <v>340.4009279161485</v>
+        <v>452.5444984312693</v>
       </c>
       <c r="F25" t="n">
-        <v>340.4009279161485</v>
+        <v>287.9133725418606</v>
       </c>
       <c r="G25" t="n">
-        <v>174.0582089740078</v>
+        <v>121.5706535997198</v>
       </c>
       <c r="H25" t="n">
-        <v>32.52078419223668</v>
+        <v>121.5706535997198</v>
       </c>
       <c r="I25" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J25" t="n">
-        <v>44.49735856772526</v>
+        <v>109.4987221990617</v>
       </c>
       <c r="K25" t="n">
-        <v>302.4061304623475</v>
+        <v>367.4074940936839</v>
       </c>
       <c r="L25" t="n">
-        <v>694.5638949047847</v>
+        <v>445.586147301098</v>
       </c>
       <c r="M25" t="n">
-        <v>1097.008599283714</v>
+        <v>529.3341802730353</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.947589209545</v>
+        <v>931.7788846519643</v>
       </c>
       <c r="O25" t="n">
-        <v>1433.646341926316</v>
+        <v>1172.748858453199</v>
       </c>
       <c r="P25" t="n">
         <v>1486.018518833437</v>
       </c>
       <c r="Q25" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="R25" t="n">
-        <v>1581.578730982092</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S25" t="n">
-        <v>1581.578730982092</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.578730982092</v>
+        <v>1390.368706062977</v>
       </c>
       <c r="U25" t="n">
-        <v>1302.793572046352</v>
+        <v>1390.368706062977</v>
       </c>
       <c r="V25" t="n">
-        <v>1028.907826985874</v>
+        <v>1116.482961002499</v>
       </c>
       <c r="W25" t="n">
-        <v>749.8381624947485</v>
+        <v>850.3830052486758</v>
       </c>
       <c r="X25" t="n">
-        <v>511.494300354432</v>
+        <v>612.0391431083592</v>
       </c>
       <c r="Y25" t="n">
-        <v>511.494300354432</v>
+        <v>612.0391431083592</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>847.109304785906</v>
+        <v>1225.102536559925</v>
       </c>
       <c r="C26" t="n">
-        <v>436.9847140991762</v>
+        <v>849.8415310052349</v>
       </c>
       <c r="D26" t="n">
-        <v>32.52078419223669</v>
+        <v>849.8415310052349</v>
       </c>
       <c r="E26" t="n">
-        <v>32.52078419223669</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="F26" t="n">
-        <v>32.52078419223669</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="G26" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="H26" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I26" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J26" t="n">
-        <v>128.2547386528479</v>
+        <v>128.2547386528484</v>
       </c>
       <c r="K26" t="n">
-        <v>292.2842198113412</v>
+        <v>292.2842198113416</v>
       </c>
       <c r="L26" t="n">
-        <v>510.7225092198166</v>
+        <v>510.7225092198169</v>
       </c>
       <c r="M26" t="n">
-        <v>766.6033169040347</v>
+        <v>766.603316904035</v>
       </c>
       <c r="N26" t="n">
         <v>1028.493135965159</v>
@@ -6244,7 +6244,7 @@
         <v>1270.387484978417</v>
       </c>
       <c r="P26" t="n">
-        <v>1462.8658100898</v>
+        <v>1462.865810089801</v>
       </c>
       <c r="Q26" t="n">
         <v>1587.899053920264</v>
@@ -6253,25 +6253,25 @@
         <v>1626.039209611835</v>
       </c>
       <c r="S26" t="n">
-        <v>1536.868625100282</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T26" t="n">
-        <v>1536.868625100282</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="U26" t="n">
-        <v>1279.970013305181</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="V26" t="n">
-        <v>1248.045977837816</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="W26" t="n">
-        <v>1248.045977837816</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="X26" t="n">
-        <v>1248.045977837816</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="Y26" t="n">
-        <v>847.109304785906</v>
+        <v>1225.102536559925</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>679.0640775658051</v>
+        <v>547.1319856508055</v>
       </c>
       <c r="C27" t="n">
-        <v>545.0690063147507</v>
+        <v>413.1369143997512</v>
       </c>
       <c r="D27" t="n">
-        <v>428.1718485341431</v>
+        <v>296.2397566191436</v>
       </c>
       <c r="E27" t="n">
-        <v>307.6790325264711</v>
+        <v>175.7469406114716</v>
       </c>
       <c r="F27" t="n">
-        <v>198.7191527089757</v>
+        <v>138.4282292950293</v>
       </c>
       <c r="G27" t="n">
-        <v>92.81170760618312</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="H27" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I27" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J27" t="n">
-        <v>81.91804360814967</v>
+        <v>81.91804360814969</v>
       </c>
       <c r="K27" t="n">
-        <v>484.3627479870788</v>
+        <v>197.9985318432598</v>
       </c>
       <c r="L27" t="n">
-        <v>759.8417617391706</v>
+        <v>372.8437026652007</v>
       </c>
       <c r="M27" t="n">
-        <v>971.7173607842184</v>
+        <v>584.7193017102485</v>
       </c>
       <c r="N27" t="n">
-        <v>1195.036177671345</v>
+        <v>808.0381185973749</v>
       </c>
       <c r="O27" t="n">
-        <v>1390.330249195377</v>
+        <v>1003.332190121408</v>
       </c>
       <c r="P27" t="n">
-        <v>1539.241067194367</v>
+        <v>1152.243008120397</v>
       </c>
       <c r="Q27" t="n">
-        <v>1618.566730931193</v>
+        <v>1530.597014454212</v>
       </c>
       <c r="R27" t="n">
         <v>1626.039209611835</v>
@@ -6338,19 +6338,19 @@
         <v>1471.061255924529</v>
       </c>
       <c r="U27" t="n">
-        <v>1471.061255924529</v>
+        <v>1273.7816731932</v>
       </c>
       <c r="V27" t="n">
-        <v>1257.349728917563</v>
+        <v>1060.070146186233</v>
       </c>
       <c r="W27" t="n">
-        <v>1044.116560653891</v>
+        <v>846.8369779225621</v>
       </c>
       <c r="X27" t="n">
-        <v>867.7905787927839</v>
+        <v>846.8369779225621</v>
       </c>
       <c r="Y27" t="n">
-        <v>708.3886191566139</v>
+        <v>687.4350182863922</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9761134084903</v>
+        <v>619.9175601118245</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9761134084903</v>
+        <v>448.8241876735411</v>
       </c>
       <c r="D28" t="n">
-        <v>282.4814687314004</v>
+        <v>448.8241876735411</v>
       </c>
       <c r="E28" t="n">
-        <v>121.5706535997198</v>
+        <v>287.9133725418606</v>
       </c>
       <c r="F28" t="n">
-        <v>121.5706535997198</v>
+        <v>287.9133725418606</v>
       </c>
       <c r="G28" t="n">
-        <v>121.5706535997198</v>
+        <v>121.5706535997199</v>
       </c>
       <c r="H28" t="n">
-        <v>121.5706535997198</v>
+        <v>121.5706535997199</v>
       </c>
       <c r="I28" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J28" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772528</v>
       </c>
       <c r="K28" t="n">
-        <v>367.4074940936839</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L28" t="n">
-        <v>684.8027894155266</v>
+        <v>488.2837013190706</v>
       </c>
       <c r="M28" t="n">
-        <v>1087.247493794456</v>
+        <v>890.7284056979997</v>
       </c>
       <c r="N28" t="n">
-        <v>1489.692198173385</v>
+        <v>1293.173110076929</v>
       </c>
       <c r="O28" t="n">
         <v>1559.920302132154</v>
@@ -6408,28 +6408,28 @@
         <v>1626.039209611835</v>
       </c>
       <c r="R28" t="n">
-        <v>1591.54860981773</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S28" t="n">
-        <v>1420.975091494455</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T28" t="n">
-        <v>1420.975091494455</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="U28" t="n">
-        <v>1420.975091494455</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="V28" t="n">
-        <v>1147.089346433977</v>
+        <v>1352.153464551357</v>
       </c>
       <c r="W28" t="n">
-        <v>868.0196819428513</v>
+        <v>1073.083800060231</v>
       </c>
       <c r="X28" t="n">
-        <v>629.6758198025348</v>
+        <v>844.6532587230598</v>
       </c>
       <c r="Y28" t="n">
-        <v>629.6758198025348</v>
+        <v>619.9175601118245</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.52078419223668</v>
+        <v>849.3501596687742</v>
       </c>
       <c r="C29" t="n">
-        <v>32.52078419223668</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="D29" t="n">
-        <v>32.52078419223668</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="E29" t="n">
-        <v>32.52078419223668</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="F29" t="n">
-        <v>32.52078419223668</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="G29" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="H29" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I29" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J29" t="n">
-        <v>128.2547386528479</v>
+        <v>128.2547386528483</v>
       </c>
       <c r="K29" t="n">
-        <v>292.2842198113411</v>
+        <v>292.2842198113415</v>
       </c>
       <c r="L29" t="n">
-        <v>510.7225092198164</v>
+        <v>510.7225092198167</v>
       </c>
       <c r="M29" t="n">
-        <v>766.6033169040343</v>
+        <v>766.6033169040347</v>
       </c>
       <c r="N29" t="n">
         <v>1028.493135965159</v>
       </c>
       <c r="O29" t="n">
-        <v>1270.387484978416</v>
+        <v>1270.387484978417</v>
       </c>
       <c r="P29" t="n">
         <v>1462.8658100898</v>
@@ -6487,28 +6487,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R29" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S29" t="n">
-        <v>1626.039209611834</v>
+        <v>1536.868625100282</v>
       </c>
       <c r="T29" t="n">
-        <v>1412.690593820437</v>
+        <v>1536.868625100282</v>
       </c>
       <c r="U29" t="n">
-        <v>1155.791982025336</v>
+        <v>1279.970013305181</v>
       </c>
       <c r="V29" t="n">
-        <v>816.9244828881156</v>
+        <v>1279.970013305181</v>
       </c>
       <c r="W29" t="n">
-        <v>433.1641820232842</v>
+        <v>1259.571339333263</v>
       </c>
       <c r="X29" t="n">
-        <v>32.52078419223668</v>
+        <v>1259.571339333263</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.52078419223668</v>
+        <v>1259.571339333263</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>620.5086847685063</v>
+        <v>449.6113817406376</v>
       </c>
       <c r="C30" t="n">
-        <v>486.513613517452</v>
+        <v>315.6163104895833</v>
       </c>
       <c r="D30" t="n">
-        <v>428.1718485341431</v>
+        <v>198.7191527089757</v>
       </c>
       <c r="E30" t="n">
-        <v>307.6790325264711</v>
+        <v>198.7191527089757</v>
       </c>
       <c r="F30" t="n">
         <v>198.7191527089757</v>
       </c>
       <c r="G30" t="n">
-        <v>92.81170760618312</v>
+        <v>92.81170760618313</v>
       </c>
       <c r="H30" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I30" t="n">
-        <v>32.52078419223668</v>
+        <v>48.71935122418729</v>
       </c>
       <c r="J30" t="n">
-        <v>81.91804360814967</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K30" t="n">
-        <v>197.9985318432597</v>
+        <v>457.8655028498436</v>
       </c>
       <c r="L30" t="n">
-        <v>372.8437026652006</v>
+        <v>632.7106736717844</v>
       </c>
       <c r="M30" t="n">
-        <v>676.5970114523403</v>
+        <v>844.5862727168322</v>
       </c>
       <c r="N30" t="n">
-        <v>899.9158283394668</v>
+        <v>1067.905089603959</v>
       </c>
       <c r="O30" t="n">
-        <v>1302.360532718396</v>
+        <v>1263.199161127991</v>
       </c>
       <c r="P30" t="n">
-        <v>1451.271350717385</v>
+        <v>1412.109979126981</v>
       </c>
       <c r="Q30" t="n">
         <v>1530.597014454212</v>
       </c>
       <c r="R30" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S30" t="n">
-        <v>1538.159275223727</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T30" t="n">
-        <v>1383.181321536421</v>
+        <v>1471.061255924529</v>
       </c>
       <c r="U30" t="n">
-        <v>1383.181321536421</v>
+        <v>1273.7816731932</v>
       </c>
       <c r="V30" t="n">
-        <v>1169.469794529455</v>
+        <v>1060.070146186233</v>
       </c>
       <c r="W30" t="n">
-        <v>956.2366262657835</v>
+        <v>846.8369779225621</v>
       </c>
       <c r="X30" t="n">
-        <v>779.9106444046763</v>
+        <v>670.510996061455</v>
       </c>
       <c r="Y30" t="n">
-        <v>620.5086847685063</v>
+        <v>589.9144143762242</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.7711363614145</v>
+        <v>340.4009279161485</v>
       </c>
       <c r="C31" t="n">
-        <v>32.52078419223668</v>
+        <v>340.4009279161485</v>
       </c>
       <c r="D31" t="n">
-        <v>32.52078419223668</v>
+        <v>340.4009279161485</v>
       </c>
       <c r="E31" t="n">
-        <v>32.52078419223668</v>
+        <v>340.4009279161485</v>
       </c>
       <c r="F31" t="n">
-        <v>32.52078419223668</v>
+        <v>340.4009279161485</v>
       </c>
       <c r="G31" t="n">
-        <v>32.52078419223668</v>
+        <v>174.0582089740078</v>
       </c>
       <c r="H31" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I31" t="n">
-        <v>32.52078419223668</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J31" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772528</v>
       </c>
       <c r="K31" t="n">
-        <v>367.4074940936839</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L31" t="n">
-        <v>684.8027894155266</v>
+        <v>488.2837013190706</v>
       </c>
       <c r="M31" t="n">
-        <v>1087.247493794456</v>
+        <v>890.7284056979997</v>
       </c>
       <c r="N31" t="n">
-        <v>1489.692198173384</v>
+        <v>1293.173110076929</v>
       </c>
       <c r="O31" t="n">
-        <v>1559.920302132153</v>
+        <v>1559.920302132154</v>
       </c>
       <c r="P31" t="n">
         <v>1612.292479039274</v>
       </c>
       <c r="Q31" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="R31" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S31" t="n">
-        <v>1626.039209611834</v>
+        <v>1455.465691288559</v>
       </c>
       <c r="T31" t="n">
-        <v>1390.368706062977</v>
+        <v>1219.795187739702</v>
       </c>
       <c r="U31" t="n">
-        <v>1107.620067998136</v>
+        <v>937.0465496748618</v>
       </c>
       <c r="V31" t="n">
-        <v>1107.620067998136</v>
+        <v>937.0465496748618</v>
       </c>
       <c r="W31" t="n">
-        <v>828.5504035070107</v>
+        <v>657.9768851837362</v>
       </c>
       <c r="X31" t="n">
-        <v>590.2065413666942</v>
+        <v>419.6330230434195</v>
       </c>
       <c r="Y31" t="n">
-        <v>365.4708427554589</v>
+        <v>419.6330230434195</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626.039209611835</v>
+        <v>1225.102536559925</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.914618925105</v>
+        <v>1225.102536559925</v>
       </c>
       <c r="D32" t="n">
-        <v>811.4506890181651</v>
+        <v>1225.102536559925</v>
       </c>
       <c r="E32" t="n">
-        <v>729.4109039704108</v>
+        <v>814.4865745367342</v>
       </c>
       <c r="F32" t="n">
-        <v>729.4109039704108</v>
+        <v>403.8706125135436</v>
       </c>
       <c r="G32" t="n">
-        <v>322.7061191806033</v>
+        <v>40.86158944263296</v>
       </c>
       <c r="H32" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263296</v>
       </c>
       <c r="I32" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J32" t="n">
         <v>128.2547386528479</v>
       </c>
       <c r="K32" t="n">
-        <v>292.2842198113412</v>
+        <v>292.2842198113411</v>
       </c>
       <c r="L32" t="n">
-        <v>510.7225092198166</v>
+        <v>510.7225092198164</v>
       </c>
       <c r="M32" t="n">
-        <v>766.6033169040347</v>
+        <v>766.603316904035</v>
       </c>
       <c r="N32" t="n">
         <v>1028.493135965159</v>
@@ -6718,7 +6718,7 @@
         <v>1270.387484978417</v>
       </c>
       <c r="P32" t="n">
-        <v>1462.8658100898</v>
+        <v>1462.865810089801</v>
       </c>
       <c r="Q32" t="n">
         <v>1587.899053920264</v>
@@ -6745,7 +6745,7 @@
         <v>1626.039209611835</v>
       </c>
       <c r="Y32" t="n">
-        <v>1626.039209611835</v>
+        <v>1225.102536559925</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>570.1041977483096</v>
+        <v>452.6638164553405</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1091264972553</v>
+        <v>318.6687452042862</v>
       </c>
       <c r="D33" t="n">
-        <v>319.2119687166477</v>
+        <v>201.7715874236786</v>
       </c>
       <c r="E33" t="n">
-        <v>198.7191527089757</v>
+        <v>201.7715874236786</v>
       </c>
       <c r="F33" t="n">
-        <v>198.7191527089757</v>
+        <v>92.81170760618313</v>
       </c>
       <c r="G33" t="n">
-        <v>92.81170760618312</v>
+        <v>92.81170760618313</v>
       </c>
       <c r="H33" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I33" t="n">
-        <v>48.71935122418728</v>
+        <v>48.71935122418729</v>
       </c>
       <c r="J33" t="n">
         <v>98.11661064010028</v>
@@ -6785,19 +6785,19 @@
         <v>214.1970988752104</v>
       </c>
       <c r="L33" t="n">
-        <v>616.6418032541394</v>
+        <v>389.0422696971513</v>
       </c>
       <c r="M33" t="n">
-        <v>828.5174022991872</v>
+        <v>600.9178687421991</v>
       </c>
       <c r="N33" t="n">
-        <v>1051.836219186314</v>
+        <v>1003.362573121128</v>
       </c>
       <c r="O33" t="n">
-        <v>1247.130290710346</v>
+        <v>1198.656644645161</v>
       </c>
       <c r="P33" t="n">
-        <v>1451.271350717386</v>
+        <v>1347.56746264415</v>
       </c>
       <c r="Q33" t="n">
         <v>1530.597014454212</v>
@@ -6809,22 +6809,22 @@
         <v>1538.159275223727</v>
       </c>
       <c r="T33" t="n">
-        <v>1383.181321536421</v>
+        <v>1383.181321536422</v>
       </c>
       <c r="U33" t="n">
         <v>1185.901738805092</v>
       </c>
       <c r="V33" t="n">
-        <v>972.1902117981258</v>
+        <v>972.190211798126</v>
       </c>
       <c r="W33" t="n">
-        <v>758.9570435344546</v>
+        <v>758.9570435344548</v>
       </c>
       <c r="X33" t="n">
-        <v>582.6310616733474</v>
+        <v>612.0657760915104</v>
       </c>
       <c r="Y33" t="n">
-        <v>570.1041977483096</v>
+        <v>452.6638164553405</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.1586707150933</v>
+        <v>91.5850976949817</v>
       </c>
       <c r="C34" t="n">
-        <v>281.0652982768098</v>
+        <v>91.5850976949817</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5706535997198</v>
+        <v>91.5850976949817</v>
       </c>
       <c r="E34" t="n">
-        <v>121.5706535997198</v>
+        <v>91.5850976949817</v>
       </c>
       <c r="F34" t="n">
-        <v>121.5706535997198</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="G34" t="n">
-        <v>121.5706535997198</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5706535997198</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="I34" t="n">
-        <v>32.52078419223669</v>
+        <v>32.5207841922367</v>
       </c>
       <c r="J34" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772528</v>
       </c>
       <c r="K34" t="n">
-        <v>367.4074940936839</v>
+        <v>302.4061304623475</v>
       </c>
       <c r="L34" t="n">
-        <v>558.5288292096895</v>
+        <v>380.5847836697616</v>
       </c>
       <c r="M34" t="n">
-        <v>960.9735335886187</v>
+        <v>772.1727343757154</v>
       </c>
       <c r="N34" t="n">
-        <v>1363.418237967548</v>
+        <v>1174.617438754645</v>
       </c>
       <c r="O34" t="n">
-        <v>1433.646341926317</v>
+        <v>1559.920302132154</v>
       </c>
       <c r="P34" t="n">
-        <v>1486.018518833437</v>
+        <v>1612.292479039274</v>
       </c>
       <c r="Q34" t="n">
         <v>1626.039209611835</v>
@@ -6888,22 +6888,22 @@
         <v>1626.039209611835</v>
       </c>
       <c r="T34" t="n">
-        <v>1390.368706062977</v>
+        <v>1390.368706062978</v>
       </c>
       <c r="U34" t="n">
         <v>1107.620067998137</v>
       </c>
       <c r="V34" t="n">
-        <v>878.2022392494544</v>
+        <v>833.7343229376593</v>
       </c>
       <c r="W34" t="n">
-        <v>878.2022392494544</v>
+        <v>554.6646584465336</v>
       </c>
       <c r="X34" t="n">
-        <v>639.8583771091377</v>
+        <v>316.320796306217</v>
       </c>
       <c r="Y34" t="n">
-        <v>639.8583771091377</v>
+        <v>91.5850976949817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>521.9399384259274</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="C35" t="n">
-        <v>521.9399384259274</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="D35" t="n">
-        <v>521.9399384259274</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="E35" t="n">
-        <v>439.2255689820443</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="F35" t="n">
-        <v>439.2255689820443</v>
+        <v>656.0054354905935</v>
       </c>
       <c r="G35" t="n">
-        <v>32.52078419223668</v>
+        <v>249.300650700786</v>
       </c>
       <c r="H35" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I35" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J35" t="n">
-        <v>128.2547386528479</v>
+        <v>128.2547386528477</v>
       </c>
       <c r="K35" t="n">
-        <v>292.2842198113411</v>
+        <v>292.284219811341</v>
       </c>
       <c r="L35" t="n">
-        <v>510.7225092198164</v>
+        <v>510.7225092198166</v>
       </c>
       <c r="M35" t="n">
-        <v>766.6033169040343</v>
+        <v>766.6033169040347</v>
       </c>
       <c r="N35" t="n">
         <v>1028.493135965159</v>
       </c>
       <c r="O35" t="n">
-        <v>1270.387484978416</v>
+        <v>1270.387484978417</v>
       </c>
       <c r="P35" t="n">
         <v>1462.8658100898</v>
@@ -6961,28 +6961,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R35" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S35" t="n">
-        <v>1536.868625100281</v>
+        <v>1536.868625100282</v>
       </c>
       <c r="T35" t="n">
         <v>1323.520009308885</v>
       </c>
       <c r="U35" t="n">
-        <v>1323.520009308885</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="V35" t="n">
-        <v>1323.520009308885</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="W35" t="n">
-        <v>1323.520009308885</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="X35" t="n">
-        <v>922.8766114778373</v>
+        <v>1066.621397513784</v>
       </c>
       <c r="Y35" t="n">
-        <v>521.9399384259274</v>
+        <v>1066.621397513784</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>452.6638164553404</v>
+        <v>287.008671450963</v>
       </c>
       <c r="C36" t="n">
-        <v>318.6687452042861</v>
+        <v>153.0136001999087</v>
       </c>
       <c r="D36" t="n">
-        <v>201.7715874236785</v>
+        <v>153.0136001999087</v>
       </c>
       <c r="E36" t="n">
-        <v>201.7715874236785</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="F36" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="G36" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="H36" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I36" t="n">
         <v>48.71935122418728</v>
       </c>
       <c r="J36" t="n">
-        <v>98.11661064010028</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K36" t="n">
-        <v>497.0268744402479</v>
+        <v>457.8655028498436</v>
       </c>
       <c r="L36" t="n">
-        <v>671.8720452621887</v>
+        <v>632.7106736717844</v>
       </c>
       <c r="M36" t="n">
-        <v>883.7476443072366</v>
+        <v>844.5862727168322</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.066461194363</v>
+        <v>1067.905089603959</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.360532718396</v>
+        <v>1263.199161127991</v>
       </c>
       <c r="P36" t="n">
-        <v>1451.271350717385</v>
+        <v>1412.109979126981</v>
       </c>
       <c r="Q36" t="n">
         <v>1530.597014454212</v>
       </c>
       <c r="R36" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S36" t="n">
         <v>1538.159275223727</v>
@@ -7052,16 +7052,16 @@
         <v>1185.901738805092</v>
       </c>
       <c r="V36" t="n">
-        <v>972.1902117981253</v>
+        <v>972.1902117981258</v>
       </c>
       <c r="W36" t="n">
-        <v>788.3917579526176</v>
+        <v>763.0396455838268</v>
       </c>
       <c r="X36" t="n">
-        <v>612.0657760915103</v>
+        <v>586.7136637227196</v>
       </c>
       <c r="Y36" t="n">
-        <v>452.6638164553404</v>
+        <v>427.3117040865496</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.0861107830044</v>
+        <v>588.9454420007216</v>
       </c>
       <c r="C37" t="n">
-        <v>754.9927383447209</v>
+        <v>588.9454420007216</v>
       </c>
       <c r="D37" t="n">
-        <v>754.9927383447209</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="E37" t="n">
-        <v>594.0819232130403</v>
+        <v>429.4507973236316</v>
       </c>
       <c r="F37" t="n">
         <v>429.4507973236316</v>
@@ -7092,55 +7092,55 @@
         <v>121.5706535997198</v>
       </c>
       <c r="I37" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J37" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772527</v>
       </c>
       <c r="K37" t="n">
-        <v>367.4074940936839</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L37" t="n">
-        <v>558.5288292096895</v>
+        <v>488.2837013190706</v>
       </c>
       <c r="M37" t="n">
-        <v>960.9735335886185</v>
+        <v>890.7284056979997</v>
       </c>
       <c r="N37" t="n">
-        <v>1363.418237967547</v>
+        <v>1293.173110076929</v>
       </c>
       <c r="O37" t="n">
-        <v>1433.646341926316</v>
+        <v>1559.920302132154</v>
       </c>
       <c r="P37" t="n">
-        <v>1486.018518833437</v>
+        <v>1612.292479039274</v>
       </c>
       <c r="Q37" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="R37" t="n">
-        <v>1581.578730982092</v>
+        <v>1581.578730982093</v>
       </c>
       <c r="S37" t="n">
-        <v>1581.578730982092</v>
+        <v>1581.578730982093</v>
       </c>
       <c r="T37" t="n">
-        <v>1581.578730982092</v>
+        <v>1345.908227433235</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.830092917252</v>
+        <v>1063.159589368395</v>
       </c>
       <c r="V37" t="n">
-        <v>1113.785817177049</v>
+        <v>868.0151064918473</v>
       </c>
       <c r="W37" t="n">
-        <v>1113.785817177049</v>
+        <v>588.9454420007216</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.785817177049</v>
+        <v>588.9454420007216</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.785817177049</v>
+        <v>588.9454420007216</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.2255689820443</v>
+        <v>1263.877298925348</v>
       </c>
       <c r="C38" t="n">
-        <v>439.2255689820443</v>
+        <v>853.752708238618</v>
       </c>
       <c r="D38" t="n">
-        <v>439.2255689820443</v>
+        <v>853.752708238618</v>
       </c>
       <c r="E38" t="n">
-        <v>439.2255689820443</v>
+        <v>443.1367462154273</v>
       </c>
       <c r="F38" t="n">
-        <v>439.2255689820443</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="G38" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="H38" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I38" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J38" t="n">
-        <v>128.2547386528479</v>
+        <v>128.2547386528477</v>
       </c>
       <c r="K38" t="n">
-        <v>292.2842198113411</v>
+        <v>292.284219811341</v>
       </c>
       <c r="L38" t="n">
-        <v>510.7225092198163</v>
+        <v>510.7225092198166</v>
       </c>
       <c r="M38" t="n">
-        <v>766.6033169040343</v>
+        <v>766.6033169040347</v>
       </c>
       <c r="N38" t="n">
         <v>1028.493135965159</v>
       </c>
       <c r="O38" t="n">
-        <v>1270.387484978416</v>
+        <v>1270.387484978417</v>
       </c>
       <c r="P38" t="n">
         <v>1462.8658100898</v>
@@ -7198,28 +7198,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R38" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S38" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T38" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="U38" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="V38" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="W38" t="n">
-        <v>1250.090146477581</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="X38" t="n">
-        <v>849.4467486465337</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="Y38" t="n">
-        <v>849.4467486465337</v>
+        <v>1626.039209611835</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>558.5712615581331</v>
+        <v>370.8060037896981</v>
       </c>
       <c r="C39" t="n">
-        <v>424.5761903070787</v>
+        <v>236.8109325386438</v>
       </c>
       <c r="D39" t="n">
-        <v>307.6790325264711</v>
+        <v>119.9137747580363</v>
       </c>
       <c r="E39" t="n">
-        <v>307.6790325264711</v>
+        <v>119.9137747580363</v>
       </c>
       <c r="F39" t="n">
-        <v>198.7191527089757</v>
+        <v>119.9137747580363</v>
       </c>
       <c r="G39" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="H39" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I39" t="n">
-        <v>32.52078419223668</v>
+        <v>48.71935122418728</v>
       </c>
       <c r="J39" t="n">
-        <v>81.91804360814967</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K39" t="n">
-        <v>484.3627479870786</v>
+        <v>497.0268744402483</v>
       </c>
       <c r="L39" t="n">
-        <v>659.2079188090195</v>
+        <v>671.8720452621892</v>
       </c>
       <c r="M39" t="n">
-        <v>871.0835178540673</v>
+        <v>883.747644307237</v>
       </c>
       <c r="N39" t="n">
         <v>1107.066461194363</v>
@@ -7271,34 +7271,34 @@
         <v>1302.360532718396</v>
       </c>
       <c r="P39" t="n">
-        <v>1451.271350717385</v>
+        <v>1451.271350717386</v>
       </c>
       <c r="Q39" t="n">
         <v>1530.597014454212</v>
       </c>
       <c r="R39" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S39" t="n">
-        <v>1538.159275223727</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T39" t="n">
-        <v>1538.159275223727</v>
+        <v>1471.061255924529</v>
       </c>
       <c r="U39" t="n">
-        <v>1340.879692492397</v>
+        <v>1273.781673193199</v>
       </c>
       <c r="V39" t="n">
-        <v>1247.835403954668</v>
+        <v>1060.070146186233</v>
       </c>
       <c r="W39" t="n">
-        <v>1034.602235690997</v>
+        <v>846.8369779225619</v>
       </c>
       <c r="X39" t="n">
-        <v>858.2762538298897</v>
+        <v>670.5109960614548</v>
       </c>
       <c r="Y39" t="n">
-        <v>698.8742941937197</v>
+        <v>511.1090364252848</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8876228192531</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7942503809696</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7942503809696</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="E40" t="n">
-        <v>471.8834352492891</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="F40" t="n">
-        <v>307.2523093598804</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="G40" t="n">
-        <v>263.1080783814909</v>
+        <v>91.58509769498124</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5706535997198</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="I40" t="n">
-        <v>32.52078419223668</v>
+        <v>32.52078419223669</v>
       </c>
       <c r="J40" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772527</v>
       </c>
       <c r="K40" t="n">
-        <v>367.4074940936839</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L40" t="n">
-        <v>759.5652585361211</v>
+        <v>423.9053059424087</v>
       </c>
       <c r="M40" t="n">
-        <v>1143.855724774435</v>
+        <v>826.3500103213378</v>
       </c>
       <c r="N40" t="n">
-        <v>1228.794714700266</v>
+        <v>1228.794714700267</v>
       </c>
       <c r="O40" t="n">
-        <v>1299.022818659035</v>
+        <v>1299.022818659036</v>
       </c>
       <c r="P40" t="n">
         <v>1612.292479039274</v>
       </c>
       <c r="Q40" t="n">
-        <v>1626.039209611834</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="R40" t="n">
-        <v>1581.578730982092</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="S40" t="n">
-        <v>1581.578730982092</v>
+        <v>1626.039209611835</v>
       </c>
       <c r="T40" t="n">
-        <v>1581.578730982092</v>
+        <v>1390.368706062977</v>
       </c>
       <c r="U40" t="n">
-        <v>1581.578730982092</v>
+        <v>1107.620067998137</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.692985921614</v>
+        <v>833.7343229376588</v>
       </c>
       <c r="W40" t="n">
-        <v>1028.623321430488</v>
+        <v>554.6646584465332</v>
       </c>
       <c r="X40" t="n">
-        <v>1028.623321430488</v>
+        <v>316.3207963062166</v>
       </c>
       <c r="Y40" t="n">
-        <v>803.8876228192531</v>
+        <v>91.58509769498124</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.52078419223669</v>
+        <v>234.6060692364725</v>
       </c>
       <c r="C41" t="n">
-        <v>32.52078419223669</v>
+        <v>234.6060692364725</v>
       </c>
       <c r="D41" t="n">
-        <v>32.52078419223669</v>
+        <v>234.6060692364725</v>
       </c>
       <c r="E41" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263295</v>
       </c>
       <c r="F41" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263295</v>
       </c>
       <c r="G41" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263295</v>
       </c>
       <c r="H41" t="n">
-        <v>32.52078419223669</v>
+        <v>40.86158944263295</v>
       </c>
       <c r="I41" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="J41" t="n">
         <v>128.2547386528479</v>
       </c>
       <c r="K41" t="n">
-        <v>292.2842198113412</v>
+        <v>292.2842198113411</v>
       </c>
       <c r="L41" t="n">
-        <v>510.7225092198166</v>
+        <v>510.7225092198163</v>
       </c>
       <c r="M41" t="n">
-        <v>766.6033169040347</v>
+        <v>766.6033169040343</v>
       </c>
       <c r="N41" t="n">
         <v>1028.493135965159</v>
       </c>
       <c r="O41" t="n">
-        <v>1270.387484978417</v>
+        <v>1270.387484978416</v>
       </c>
       <c r="P41" t="n">
         <v>1462.8658100898</v>
@@ -7435,28 +7435,28 @@
         <v>1587.899053920264</v>
       </c>
       <c r="R41" t="n">
-        <v>1626.039209611835</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="S41" t="n">
-        <v>1576.983217216124</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T41" t="n">
-        <v>1576.983217216124</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="U41" t="n">
-        <v>1576.983217216124</v>
+        <v>1369.140597816733</v>
       </c>
       <c r="V41" t="n">
-        <v>1227.145662552605</v>
+        <v>1019.303043153214</v>
       </c>
       <c r="W41" t="n">
-        <v>843.3853616877736</v>
+        <v>635.5427422883824</v>
       </c>
       <c r="X41" t="n">
-        <v>442.7419638567262</v>
+        <v>635.5427422883824</v>
       </c>
       <c r="Y41" t="n">
-        <v>442.7419638567262</v>
+        <v>234.6060692364725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>573.1566324630124</v>
+        <v>496.6375964085565</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1615612119581</v>
+        <v>362.6425251575022</v>
       </c>
       <c r="D42" t="n">
-        <v>322.2644034313506</v>
+        <v>245.7453673768946</v>
       </c>
       <c r="E42" t="n">
-        <v>201.7715874236785</v>
+        <v>125.2525513692226</v>
       </c>
       <c r="F42" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="G42" t="n">
-        <v>92.81170760618312</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="H42" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I42" t="n">
         <v>48.71935122418728</v>
       </c>
       <c r="J42" t="n">
-        <v>98.11661064010028</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K42" t="n">
-        <v>214.1970988752104</v>
+        <v>497.0268744402479</v>
       </c>
       <c r="L42" t="n">
-        <v>569.2726564052894</v>
+        <v>671.8720452621887</v>
       </c>
       <c r="M42" t="n">
-        <v>971.7173607842184</v>
+        <v>883.7476443072366</v>
       </c>
       <c r="N42" t="n">
-        <v>1195.036177671345</v>
+        <v>1107.066461194363</v>
       </c>
       <c r="O42" t="n">
-        <v>1390.330249195377</v>
+        <v>1302.360532718396</v>
       </c>
       <c r="P42" t="n">
-        <v>1539.241067194367</v>
+        <v>1451.271350717385</v>
       </c>
       <c r="Q42" t="n">
-        <v>1618.566730931193</v>
+        <v>1530.597014454212</v>
       </c>
       <c r="R42" t="n">
-        <v>1626.039209611835</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="S42" t="n">
-        <v>1615.156670021478</v>
+        <v>1538.159275223727</v>
       </c>
       <c r="T42" t="n">
-        <v>1460.178716334172</v>
+        <v>1383.181321536421</v>
       </c>
       <c r="U42" t="n">
-        <v>1262.899133602843</v>
+        <v>1185.901738805092</v>
       </c>
       <c r="V42" t="n">
-        <v>1049.187606595876</v>
+        <v>1185.901738805092</v>
       </c>
       <c r="W42" t="n">
-        <v>1049.187606595876</v>
+        <v>972.6685705414203</v>
       </c>
       <c r="X42" t="n">
-        <v>872.8616247347691</v>
+        <v>796.3425886803132</v>
       </c>
       <c r="Y42" t="n">
-        <v>713.4596650985991</v>
+        <v>636.9406290441432</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>483.8296396135546</v>
+        <v>688.6507423286994</v>
       </c>
       <c r="C43" t="n">
-        <v>338.6893348634165</v>
+        <v>517.5573698904159</v>
       </c>
       <c r="D43" t="n">
-        <v>338.6893348634165</v>
+        <v>358.062725213326</v>
       </c>
       <c r="E43" t="n">
-        <v>338.6893348634165</v>
+        <v>197.1519100816454</v>
       </c>
       <c r="F43" t="n">
-        <v>174.0582089740078</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="G43" t="n">
-        <v>174.0582089740078</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="H43" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I43" t="n">
-        <v>32.52078419223669</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="J43" t="n">
-        <v>109.4987221990617</v>
+        <v>44.49735856772526</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1273005079698</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L43" t="n">
-        <v>553.2850649504069</v>
+        <v>369.728029996786</v>
       </c>
       <c r="M43" t="n">
-        <v>637.033097922344</v>
+        <v>772.172734375715</v>
       </c>
       <c r="N43" t="n">
-        <v>787.4459950756893</v>
+        <v>1174.617438754644</v>
       </c>
       <c r="O43" t="n">
-        <v>1172.748858453199</v>
+        <v>1559.920302132153</v>
       </c>
       <c r="P43" t="n">
-        <v>1486.018518833437</v>
+        <v>1612.292479039274</v>
       </c>
       <c r="Q43" t="n">
-        <v>1626.039209611835</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="R43" t="n">
-        <v>1581.578730982093</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="S43" t="n">
-        <v>1411.005212658817</v>
+        <v>1618.499673965421</v>
       </c>
       <c r="T43" t="n">
-        <v>1175.33470910996</v>
+        <v>1618.499673965421</v>
       </c>
       <c r="U43" t="n">
-        <v>1175.33470910996</v>
+        <v>1618.499673965421</v>
       </c>
       <c r="V43" t="n">
-        <v>1175.33470910996</v>
+        <v>1618.499673965421</v>
       </c>
       <c r="W43" t="n">
-        <v>896.2650446188343</v>
+        <v>1339.430009474296</v>
       </c>
       <c r="X43" t="n">
-        <v>896.2650446188343</v>
+        <v>1101.086147333979</v>
       </c>
       <c r="Y43" t="n">
-        <v>671.529346007599</v>
+        <v>876.3504487227437</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153.10832423545</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.026865993601</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="D44" t="n">
-        <v>1140.026865993601</v>
+        <v>1221.575279704895</v>
       </c>
       <c r="E44" t="n">
-        <v>1140.026865993601</v>
+        <v>849.8415310052347</v>
       </c>
       <c r="F44" t="n">
-        <v>729.4109039704108</v>
+        <v>439.2255689820443</v>
       </c>
       <c r="G44" t="n">
-        <v>322.7061191806033</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="H44" t="n">
         <v>32.52078419223668</v>
@@ -7648,10 +7648,10 @@
         <v>32.52078419223668</v>
       </c>
       <c r="J44" t="n">
-        <v>128.2547386528479</v>
+        <v>128.2547386528477</v>
       </c>
       <c r="K44" t="n">
-        <v>292.2842198113411</v>
+        <v>292.2842198113409</v>
       </c>
       <c r="L44" t="n">
         <v>510.7225092198162</v>
@@ -7675,25 +7675,25 @@
         <v>1626.039209611834</v>
       </c>
       <c r="S44" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T44" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="U44" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="V44" t="n">
-        <v>1536.868625100281</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="W44" t="n">
-        <v>1153.10832423545</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.10832423545</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="Y44" t="n">
-        <v>1153.10832423545</v>
+        <v>1626.039209611834</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>437.9040230888962</v>
+        <v>403.9058292315706</v>
       </c>
       <c r="C45" t="n">
-        <v>437.9040230888962</v>
+        <v>269.9107579805163</v>
       </c>
       <c r="D45" t="n">
-        <v>321.0068653082886</v>
+        <v>153.0136001999087</v>
       </c>
       <c r="E45" t="n">
-        <v>247.3881091125247</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="F45" t="n">
-        <v>138.4282292950293</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="G45" t="n">
         <v>32.52078419223668</v>
@@ -7727,25 +7727,25 @@
         <v>48.71935122418728</v>
       </c>
       <c r="J45" t="n">
-        <v>98.11661064010028</v>
+        <v>341.7850146147335</v>
       </c>
       <c r="K45" t="n">
-        <v>214.1970988752104</v>
+        <v>457.8655028498436</v>
       </c>
       <c r="L45" t="n">
-        <v>389.0422696971513</v>
+        <v>632.7106736717844</v>
       </c>
       <c r="M45" t="n">
-        <v>600.9178687421991</v>
+        <v>844.5862727168322</v>
       </c>
       <c r="N45" t="n">
-        <v>824.2366856293255</v>
+        <v>1067.905089603959</v>
       </c>
       <c r="O45" t="n">
-        <v>1226.681390008255</v>
+        <v>1263.199161127991</v>
       </c>
       <c r="P45" t="n">
-        <v>1451.271350717385</v>
+        <v>1412.109979126981</v>
       </c>
       <c r="Q45" t="n">
         <v>1530.597014454212</v>
@@ -7754,25 +7754,25 @@
         <v>1626.039209611834</v>
       </c>
       <c r="S45" t="n">
-        <v>1538.159275223727</v>
+        <v>1626.039209611834</v>
       </c>
       <c r="T45" t="n">
-        <v>1538.159275223727</v>
+        <v>1471.061255924528</v>
       </c>
       <c r="U45" t="n">
-        <v>1340.879692492397</v>
+        <v>1273.781673193199</v>
       </c>
       <c r="V45" t="n">
-        <v>1127.168165485431</v>
+        <v>1060.070146186233</v>
       </c>
       <c r="W45" t="n">
-        <v>913.93499722176</v>
+        <v>846.8369779225615</v>
       </c>
       <c r="X45" t="n">
-        <v>737.6090153606528</v>
+        <v>670.5109960614543</v>
       </c>
       <c r="Y45" t="n">
-        <v>578.2070557244829</v>
+        <v>544.2088618671572</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.0433306783234</v>
+        <v>358.062725213326</v>
       </c>
       <c r="C46" t="n">
-        <v>772.9499582400399</v>
+        <v>358.062725213326</v>
       </c>
       <c r="D46" t="n">
-        <v>613.4553135629499</v>
+        <v>358.062725213326</v>
       </c>
       <c r="E46" t="n">
-        <v>452.5444984312693</v>
+        <v>197.1519100816454</v>
       </c>
       <c r="F46" t="n">
-        <v>287.9133725418606</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="G46" t="n">
-        <v>121.5706535997198</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="H46" t="n">
-        <v>121.5706535997198</v>
+        <v>32.52078419223668</v>
       </c>
       <c r="I46" t="n">
         <v>32.52078419223668</v>
@@ -7809,16 +7809,16 @@
         <v>44.49735856772526</v>
       </c>
       <c r="K46" t="n">
-        <v>302.4061304623475</v>
+        <v>96.1259368766334</v>
       </c>
       <c r="L46" t="n">
-        <v>423.9053059424086</v>
+        <v>174.3045900840475</v>
       </c>
       <c r="M46" t="n">
-        <v>826.3500103213375</v>
+        <v>576.7492944629765</v>
       </c>
       <c r="N46" t="n">
-        <v>1228.794714700266</v>
+        <v>913.7199552815259</v>
       </c>
       <c r="O46" t="n">
         <v>1299.022818659035</v>
@@ -7830,28 +7830,28 @@
         <v>1626.039209611834</v>
       </c>
       <c r="R46" t="n">
-        <v>1581.578730982092</v>
+        <v>1609.768199065339</v>
       </c>
       <c r="S46" t="n">
-        <v>1581.578730982092</v>
+        <v>1609.768199065339</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.664774350037</v>
+        <v>1374.097695516482</v>
       </c>
       <c r="U46" t="n">
-        <v>1442.664774350037</v>
+        <v>1374.097695516482</v>
       </c>
       <c r="V46" t="n">
-        <v>1168.779029289559</v>
+        <v>1100.211950456003</v>
       </c>
       <c r="W46" t="n">
-        <v>1168.779029289559</v>
+        <v>821.1422859648778</v>
       </c>
       <c r="X46" t="n">
-        <v>1168.779029289559</v>
+        <v>582.7984238245613</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.0433306783234</v>
+        <v>358.062725213326</v>
       </c>
     </row>
   </sheetData>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.403269512875561</v>
+        <v>3.403269512875553</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>229.8985187444326</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>161.008611633315</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>144.7774293932692</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>321.9158297040323</v>
       </c>
       <c r="N13" t="n">
-        <v>200.9596395260747</v>
+        <v>320.7128428819172</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>197.3974140532715</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>3.403269512875561</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>55.9191299215712</v>
       </c>
       <c r="Q15" t="n">
-        <v>285.6866419848867</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,19 +9087,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.190016237944761</v>
       </c>
       <c r="L16" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>321.9158297040321</v>
+        <v>321.9158297040323</v>
       </c>
       <c r="N16" t="n">
         <v>320.7128428819171</v>
       </c>
       <c r="O16" t="n">
-        <v>5.296731575033007</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>76.44357849509225</v>
+        <v>39.55694100040881</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>209.2430634897944</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>172.4665351944094</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>320.712842881917</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>248.853694263389</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>289.2567839836555</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.2881574729297</v>
+        <v>39.55694100040834</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>127.0279905928093</v>
       </c>
       <c r="L22" t="n">
-        <v>114.0835170793855</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>321.9158297040321</v>
+        <v>321.915829704032</v>
       </c>
       <c r="N22" t="n">
-        <v>320.7128428819171</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.403269512875561</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>181.6640668879526</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>209.2430634897943</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>285.6866419848869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>321.915829704032</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>320.7128428819171</v>
       </c>
       <c r="O25" t="n">
-        <v>183.3036856141441</v>
+        <v>172.4665351944097</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
         <v>127.5494547533709</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>289.2567839836555</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>101.6503463940919</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>302.0488309060494</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>241.6329718327561</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>321.9158297040321</v>
+        <v>321.9158297040323</v>
       </c>
       <c r="N28" t="n">
-        <v>320.7128428819171</v>
+        <v>320.7128428819172</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>198.5041293903598</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.403269512875561</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>92.80576741625441</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>209.2430634897943</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.55694100040903</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>241.6329718327561</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>321.915829704032</v>
+        <v>321.9158297040323</v>
       </c>
       <c r="N31" t="n">
-        <v>320.712842881917</v>
+        <v>320.7128428819172</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>198.5041293903598</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10433,22 +10433,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>229.8985187444325</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>180.9352398907097</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>55.78812324045438</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.7514020941774</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>114.0835170793854</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>321.9158297040321</v>
+        <v>310.949411852542</v>
       </c>
       <c r="N34" t="n">
         <v>320.7128428819171</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>285.6866419848864</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>39.5569410004088</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>114.0835170793854</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>321.915829704032</v>
+        <v>321.9158297040321</v>
       </c>
       <c r="N37" t="n">
-        <v>320.712842881917</v>
+        <v>320.7128428819171</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>198.5041293903596</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.403269512875561</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>289.2567839836554</v>
+        <v>39.55694100040878</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>12.79204692239315</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>252.1219352104659</v>
       </c>
       <c r="M40" t="n">
-        <v>303.578215420583</v>
+        <v>321.9158297040321</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>320.7128428819171</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>39.55694100040833</v>
       </c>
       <c r="L42" t="n">
-        <v>182.050895664786</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>192.4940457917992</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>197.3974140532712</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>321.915829704032</v>
       </c>
       <c r="N43" t="n">
-        <v>66.13525982577188</v>
+        <v>320.712842881917</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>209.2430634897943</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>76.44357849509211</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.55694100040834</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75810330570397</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>321.915829704032</v>
       </c>
       <c r="N46" t="n">
-        <v>320.712842881917</v>
+        <v>254.5774453461801</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
@@ -22561,7 +22561,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.258746329649769</v>
+        <v>4.258746329649796</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.258746329649769</v>
+        <v>4.258746329649796</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.7641932053964</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.27887866643718</v>
+        <v>34.30411140336282</v>
       </c>
       <c r="T11" t="n">
         <v>211.2151296334828</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.8483706517646</v>
       </c>
       <c r="H12" t="n">
         <v>59.68801417980696</v>
@@ -23390,19 +23390,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>16.06583151410368</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3067869040161</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21.45364079594722</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.91301203681476</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01587384344467</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U13" t="n">
-        <v>18.72830930116658</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23515,7 +23515,7 @@
         <v>287.2834816384828</v>
       </c>
       <c r="I14" t="n">
-        <v>8.257397197892288</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>76.64091681116795</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>199.2778395991769</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.68801417980696</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>153.4281741504329</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>120.9142021658685</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>64.18573188964299</v>
       </c>
     </row>
     <row r="16">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.12260423701125</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I16" t="n">
         <v>88.15937071340832</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.8677831400427</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>264.1053196153207</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.50302355012343</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>10.31030552289076</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>295.016606991755</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T17" t="n">
         <v>211.2151296334828</v>
@@ -23794,10 +23794,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38.63800401267372</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>23.26785146172988</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.31154426168243</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.90606062837008</v>
       </c>
       <c r="U19" t="n">
-        <v>279.921151684192</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>325.7768728287783</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>3.6870109253137</v>
       </c>
       <c r="F20" t="n">
-        <v>142.0374167963112</v>
+        <v>10.31030552289076</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>287.2834816384828</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.257397197892317</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2151296334828</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>25.76440034408552</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.8483706517646</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>126.4984070234437</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.1220505339534</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.01587384344469</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S22" t="n">
-        <v>37.81520492291509</v>
+        <v>168.8677831400427</v>
       </c>
       <c r="T22" t="n">
         <v>233.3137985133687</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>117.1176191939177</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,19 +24214,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>84.61582191822538</v>
+        <v>3.687010925313587</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>10.31030552289064</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>44.19306845026949</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.2834816384828</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.257397197892303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.2151296334828</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>47.94709580713176</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.94051389233145</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>153.4281741504329</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I25" t="n">
-        <v>88.15937071340832</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S25" t="n">
         <v>168.8677831400427</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3137985133687</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.923844337809555</v>
+        <v>279.921151684192</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>12.84001164992918</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>34.51494928071952</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>3.68701092531353</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6377369419095</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>287.2834816384828</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T26" t="n">
         <v>211.2151296334828</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3296256771501</v>
       </c>
       <c r="V26" t="n">
-        <v>314.7343840041927</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.86870613433</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>70.92475681604253</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3067869040161</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.1220505339534</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.870180047281593</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.8677831400427</v>
       </c>
       <c r="T28" t="n">
         <v>233.3137985133687</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>9.814187595113822</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24694,7 +24694,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6377369419095</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>287.2834816384828</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.27887866643718</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2151296334828</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>10.86035497103546</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>359.7280106239847</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.96983886932567</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3067869040161</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>78.01732417142975</v>
       </c>
     </row>
     <row r="31">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.3829351541056</v>
       </c>
       <c r="C31" t="n">
-        <v>25.58459006641465</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6792917527193</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1220505339534</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>88.15937071340832</v>
@@ -24888,7 +24888,7 @@
         <v>44.01587384344468</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8677831400427</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>328.9774261309955</v>
+        <v>3.68701092531353</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>10.31030552289059</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>43.25880410170799</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.2834816384828</v>
       </c>
       <c r="I32" t="n">
-        <v>8.257397197892303</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.8483706517646</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>29.14036727398121</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.4063447540209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>104.5111442627971</v>
       </c>
       <c r="G34" t="n">
         <v>164.6792917527193</v>
@@ -25095,7 +25095,7 @@
         <v>140.1220505339534</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>44.02323714867759</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>328.309587578828</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>10.31030552289064</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>287.2834816384828</v>
+        <v>72.67141379501908</v>
       </c>
       <c r="I35" t="n">
         <v>8.257397197892303</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>104.8483706517646</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>29.14036727398184</v>
+        <v>4.041776028878473</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>168.8677831400427</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3137985133687</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>87.95305462707239</v>
+        <v>77.95384956209102</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>47.57867628822282</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>3.687010925313587</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>10.31030552289064</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.6377369419095</v>
       </c>
       <c r="H38" t="n">
         <v>287.2834816384828</v>
@@ -25453,10 +25453,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>7.733125353272612</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25481,13 +25481,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>18.32930999162306</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T39" t="n">
-        <v>153.4281741504329</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>119.4605660845443</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>120.9765030841137</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>81.64838016623629</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S40" t="n">
         <v>168.8677831400427</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3137985133687</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.921151684192</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,7 +25636,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>218.3897783323711</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25648,7 +25648,7 @@
         <v>287.2834816384828</v>
       </c>
       <c r="I41" t="n">
-        <v>8.257397197892303</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.713446194684</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T41" t="n">
         <v>211.2151296334828</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3296256771501</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>16.06583151410437</v>
       </c>
       <c r="G42" t="n">
         <v>104.8483706517646</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.68801417980697</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>76.22742084977311</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,10 +25766,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.693537011264</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>164.6792917527193</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1220505339534</v>
       </c>
       <c r="I43" t="n">
         <v>88.15937071340832</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.01587384344468</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.4036428500941</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3137985133687</v>
       </c>
       <c r="U43" t="n">
         <v>279.921151684192</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>393.0727011204324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>42.1804021156089</v>
       </c>
       <c r="F44" t="n">
         <v>10.31030552289076</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.2834816384828</v>
       </c>
       <c r="I44" t="n">
         <v>8.257397197892303</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.27887866643718</v>
       </c>
       <c r="T44" t="n">
         <v>211.2151296334828</v>
@@ -25927,7 +25927,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25946,19 +25946,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>46.40531921378899</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.8483706517646</v>
       </c>
       <c r="H45" t="n">
         <v>59.68801417980697</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>87.00113504422637</v>
       </c>
       <c r="T45" t="n">
-        <v>153.4281741504329</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>32.76882718745416</v>
       </c>
     </row>
     <row r="46">
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6792917527193</v>
       </c>
       <c r="H46" t="n">
         <v>140.1220505339534</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.15937071340832</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.90757340241412</v>
       </c>
       <c r="S46" t="n">
         <v>168.8677831400427</v>
       </c>
       <c r="T46" t="n">
-        <v>95.78898144763397</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.921151684192</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362405.6006305334</v>
+        <v>362405.6006305335</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362405.6006305334</v>
+        <v>362405.6006305335</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362405.6006305334</v>
+        <v>362405.6006305335</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362405.6006305334</v>
+        <v>362405.6006305335</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362405.6006305334</v>
+        <v>362405.6006305335</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362405.6006305336</v>
+        <v>362405.6006305334</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502231.0971625374</v>
+        <v>502231.0971625372</v>
       </c>
       <c r="C2" t="n">
-        <v>502231.0971625373</v>
+        <v>502231.0971625372</v>
       </c>
       <c r="D2" t="n">
         <v>502233.7102451723</v>
       </c>
       <c r="E2" t="n">
+        <v>266834.5371118756</v>
+      </c>
+      <c r="F2" t="n">
         <v>266834.5371118757</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266834.5371118756</v>
       </c>
       <c r="G2" t="n">
         <v>266834.5371118756</v>
@@ -26340,22 +26340,22 @@
         <v>266834.5371118755</v>
       </c>
       <c r="K2" t="n">
-        <v>266834.5371118755</v>
+        <v>266834.5371118756</v>
       </c>
       <c r="L2" t="n">
-        <v>266834.5371118757</v>
+        <v>266834.5371118756</v>
       </c>
       <c r="M2" t="n">
-        <v>266834.5371118757</v>
+        <v>266834.5371118756</v>
       </c>
       <c r="N2" t="n">
-        <v>266834.5371118757</v>
+        <v>266834.5371118756</v>
       </c>
       <c r="O2" t="n">
         <v>266834.5371118757</v>
       </c>
       <c r="P2" t="n">
-        <v>266834.5371118758</v>
+        <v>266834.5371118756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91626.024235875</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>9023.711902575867</v>
       </c>
       <c r="E3" t="n">
-        <v>436862.7753574217</v>
+        <v>436862.7753574218</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>101303.8687980269</v>
+        <v>101303.868798027</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>333190.7211739117</v>
       </c>
       <c r="E4" t="n">
+        <v>27063.04340344521</v>
+      </c>
+      <c r="F4" t="n">
         <v>27063.04340344522</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>27063.04340344521</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27063.04340344519</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27063.04340344521</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27063.04340344522</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27063.04340344522</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27063.04340344522</v>
+      </c>
+      <c r="M4" t="n">
         <v>27063.0434034452</v>
       </c>
-      <c r="G4" t="n">
-        <v>27063.0434034452</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>27063.04340344521</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>27063.04340344519</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27063.04340344521</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27063.0434034452</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27063.04340344521</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27063.04340344519</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27063.04340344519</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27063.04340344522</v>
       </c>
       <c r="P4" t="n">
         <v>27063.04340344519</v>
@@ -26484,7 +26484,7 @@
         <v>35578.99760008296</v>
       </c>
       <c r="G5" t="n">
-        <v>35578.99760008295</v>
+        <v>35578.99760008296</v>
       </c>
       <c r="H5" t="n">
         <v>35578.99760008296</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38184.00811417343</v>
+        <v>38175.28449727615</v>
       </c>
       <c r="C6" t="n">
-        <v>129810.0323500484</v>
+        <v>129801.3087331511</v>
       </c>
       <c r="D6" t="n">
-        <v>124089.1058191481</v>
+        <v>124080.3906315499</v>
       </c>
       <c r="E6" t="n">
-        <v>-232670.2792490742</v>
+        <v>-233438.3466080704</v>
       </c>
       <c r="F6" t="n">
-        <v>204192.4961083474</v>
+        <v>203424.4287493516</v>
       </c>
       <c r="G6" t="n">
-        <v>204192.4961083475</v>
+        <v>203424.4287493515</v>
       </c>
       <c r="H6" t="n">
-        <v>204192.4961083474</v>
+        <v>203424.4287493514</v>
       </c>
       <c r="I6" t="n">
-        <v>204192.4961083474</v>
+        <v>203424.4287493514</v>
       </c>
       <c r="J6" t="n">
-        <v>204192.4961083474</v>
+        <v>203424.4287493514</v>
       </c>
       <c r="K6" t="n">
-        <v>204192.4961083474</v>
+        <v>203424.4287493515</v>
       </c>
       <c r="L6" t="n">
-        <v>204192.4961083475</v>
+        <v>203424.4287493515</v>
       </c>
       <c r="M6" t="n">
-        <v>102888.6273103207</v>
+        <v>102120.5599513246</v>
       </c>
       <c r="N6" t="n">
-        <v>204192.4961083476</v>
+        <v>203424.4287493515</v>
       </c>
       <c r="O6" t="n">
-        <v>204192.4961083476</v>
+        <v>203424.4287493516</v>
       </c>
       <c r="P6" t="n">
-        <v>204192.4961083476</v>
+        <v>203424.4287493515</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>105.6225389695733</v>
       </c>
       <c r="E3" t="n">
-        <v>498.3120006414255</v>
+        <v>498.3120006414256</v>
       </c>
       <c r="F3" t="n">
         <v>498.3120006414255</v>
       </c>
       <c r="G3" t="n">
-        <v>498.3120006414254</v>
+        <v>498.3120006414255</v>
       </c>
       <c r="H3" t="n">
-        <v>498.3120006414254</v>
+        <v>498.3120006414255</v>
       </c>
       <c r="I3" t="n">
         <v>498.3120006414255</v>
@@ -26804,31 +26804,31 @@
         <v>406.5098024029587</v>
       </c>
       <c r="G4" t="n">
+        <v>406.5098024029587</v>
+      </c>
+      <c r="H4" t="n">
         <v>406.5098024029585</v>
       </c>
-      <c r="H4" t="n">
-        <v>406.5098024029586</v>
-      </c>
       <c r="I4" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="J4" t="n">
         <v>406.5098024029587</v>
       </c>
       <c r="K4" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="L4" t="n">
         <v>406.5098024029587</v>
       </c>
       <c r="M4" t="n">
+        <v>406.5098024029587</v>
+      </c>
+      <c r="N4" t="n">
+        <v>406.5098024029587</v>
+      </c>
+      <c r="O4" t="n">
         <v>406.5098024029585</v>
-      </c>
-      <c r="N4" t="n">
-        <v>406.5098024029585</v>
-      </c>
-      <c r="O4" t="n">
-        <v>406.5098024029587</v>
       </c>
       <c r="P4" t="n">
         <v>406.5098024029585</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>406.5098024029587</v>
+        <v>406.5098024029588</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>406.5098024029587</v>
+        <v>406.5098024029588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>406.5098024029587</v>
+        <v>406.5098024029588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27645,10 +27645,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L5" t="n">
-        <v>35.16270217958865</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M5" t="n">
-        <v>26.16960234776165</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N5" t="n">
         <v>24.70558680915735</v>
@@ -27657,7 +27657,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P5" t="n">
-        <v>38.68062560122958</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q5" t="n">
         <v>48.7545716309821</v>
@@ -27727,7 +27727,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M6" t="n">
-        <v>5.742459823057359</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.382254936446342</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H5" t="n">
-        <v>3.914768367881101</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I5" t="n">
-        <v>14.73688343734761</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J5" t="n">
         <v>32.44340991221275</v>
@@ -31293,10 +31293,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L5" t="n">
-        <v>60.32269588325617</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M5" t="n">
-        <v>67.1206221092838</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N5" t="n">
         <v>68.20670394746197</v>
@@ -31305,7 +31305,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P5" t="n">
-        <v>54.96873767965458</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q5" t="n">
         <v>41.27923276816995</v>
@@ -31320,7 +31320,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03058039491570736</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2045244218920217</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H6" t="n">
         <v>1.975275337746631</v>
@@ -31375,7 +31375,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M6" t="n">
-        <v>51.82182391536006</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -31396,7 +31396,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8243769461349469</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U6" t="n">
         <v>0.01345555407184354</v>
@@ -31460,16 +31460,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O7" t="n">
-        <v>24.23599693896882</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P7" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.35797323159517</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R7" t="n">
-        <v>7.709753078218403</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S7" t="n">
         <v>2.98819180164672</v>
@@ -31764,7 +31764,7 @@
         <v>170.0245554349355</v>
       </c>
       <c r="K11" t="n">
-        <v>254.8227342777557</v>
+        <v>254.8227342777558</v>
       </c>
       <c r="L11" t="n">
         <v>316.1301348390825</v>
@@ -31785,10 +31785,10 @@
         <v>216.3300102885095</v>
       </c>
       <c r="R11" t="n">
-        <v>125.8375526041887</v>
+        <v>125.8375526041888</v>
       </c>
       <c r="S11" t="n">
-        <v>45.64938578740296</v>
+        <v>45.64938578740297</v>
       </c>
       <c r="T11" t="n">
         <v>8.769289579126994</v>
@@ -31834,10 +31834,10 @@
         <v>1.071840907040047</v>
       </c>
       <c r="H12" t="n">
-        <v>10.35172665483414</v>
+        <v>10.35172665483415</v>
       </c>
       <c r="I12" t="n">
-        <v>36.90329438712444</v>
+        <v>36.90329438712445</v>
       </c>
       <c r="J12" t="n">
         <v>101.2654604322354</v>
@@ -31855,25 +31855,25 @@
         <v>278.767955905999</v>
       </c>
       <c r="O12" t="n">
-        <v>255.0182179131642</v>
+        <v>255.0182179131643</v>
       </c>
       <c r="P12" t="n">
-        <v>204.6746026785508</v>
+        <v>204.6746026785509</v>
       </c>
       <c r="Q12" t="n">
         <v>136.8195515723401</v>
       </c>
       <c r="R12" t="n">
-        <v>66.54815736867945</v>
+        <v>66.54815736867947</v>
       </c>
       <c r="S12" t="n">
         <v>19.90897474260789</v>
       </c>
       <c r="T12" t="n">
-        <v>4.320271024428961</v>
+        <v>4.320271024428962</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07051584914737156</v>
+        <v>0.07051584914737158</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8985954109927344</v>
+        <v>0.8985954109927345</v>
       </c>
       <c r="H13" t="n">
-        <v>7.989330108644499</v>
+        <v>7.9893301086445</v>
       </c>
       <c r="I13" t="n">
         <v>27.02321472330879</v>
       </c>
       <c r="J13" t="n">
-        <v>63.53069555718632</v>
+        <v>63.53069555718633</v>
       </c>
       <c r="K13" t="n">
         <v>104.400448658974</v>
@@ -31928,19 +31928,19 @@
         <v>133.5966304670471</v>
       </c>
       <c r="M13" t="n">
-        <v>140.8589151977065</v>
+        <v>140.8589151977066</v>
       </c>
       <c r="N13" t="n">
         <v>137.509605029461</v>
       </c>
       <c r="O13" t="n">
-        <v>127.0123768192276</v>
+        <v>127.0123768192277</v>
       </c>
       <c r="P13" t="n">
         <v>108.6810304349758</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.24511209685525</v>
+        <v>75.24511209685527</v>
       </c>
       <c r="R13" t="n">
         <v>40.40411729790967</v>
@@ -31949,10 +31949,10 @@
         <v>15.6600672988461</v>
       </c>
       <c r="T13" t="n">
-        <v>3.839453119696228</v>
+        <v>3.839453119696229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0490142951450583</v>
+        <v>0.04901429514505831</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.51593076007637</v>
       </c>
       <c r="I14" t="n">
-        <v>77.23084785820528</v>
+        <v>77.23084785820527</v>
       </c>
       <c r="J14" t="n">
         <v>170.0245554349355</v>
@@ -32004,7 +32004,7 @@
         <v>254.8227342777557</v>
       </c>
       <c r="L14" t="n">
-        <v>316.1301348390825</v>
+        <v>316.1301348390824</v>
       </c>
       <c r="M14" t="n">
         <v>351.7556867643365</v>
@@ -32013,7 +32013,7 @@
         <v>357.4474615254318</v>
       </c>
       <c r="O14" t="n">
-        <v>337.527501901801</v>
+        <v>337.5275019018009</v>
       </c>
       <c r="P14" t="n">
         <v>288.0719138984434</v>
@@ -32028,7 +32028,7 @@
         <v>45.64938578740296</v>
       </c>
       <c r="T14" t="n">
-        <v>8.769289579126994</v>
+        <v>8.769289579126992</v>
       </c>
       <c r="U14" t="n">
         <v>0.1602611459349307</v>
@@ -32086,7 +32086,7 @@
         <v>232.7258074693752</v>
       </c>
       <c r="M15" t="n">
-        <v>271.5800403495769</v>
+        <v>271.5800403495768</v>
       </c>
       <c r="N15" t="n">
         <v>278.767955905999</v>
@@ -32104,7 +32104,7 @@
         <v>66.54815736867945</v>
       </c>
       <c r="S15" t="n">
-        <v>19.90897474260789</v>
+        <v>19.90897474260788</v>
       </c>
       <c r="T15" t="n">
         <v>4.320271024428961</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8985954109927344</v>
+        <v>0.8985954109927343</v>
       </c>
       <c r="H16" t="n">
         <v>7.989330108644499</v>
       </c>
       <c r="I16" t="n">
-        <v>27.02321472330879</v>
+        <v>27.02321472330878</v>
       </c>
       <c r="J16" t="n">
-        <v>63.53069555718632</v>
+        <v>63.53069555718631</v>
       </c>
       <c r="K16" t="n">
         <v>104.400448658974</v>
@@ -32177,10 +32177,10 @@
         <v>108.6810304349758</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.24511209685525</v>
+        <v>75.24511209685524</v>
       </c>
       <c r="R16" t="n">
-        <v>40.40411729790967</v>
+        <v>40.40411729790966</v>
       </c>
       <c r="S16" t="n">
         <v>15.6600672988461</v>
@@ -32189,7 +32189,7 @@
         <v>3.839453119696228</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0490142951450583</v>
+        <v>0.04901429514505829</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.003264324186633</v>
+        <v>2.003264324186634</v>
       </c>
       <c r="H17" t="n">
-        <v>20.51593076007636</v>
+        <v>20.51593076007637</v>
       </c>
       <c r="I17" t="n">
-        <v>77.23084785820525</v>
+        <v>77.23084785820527</v>
       </c>
       <c r="J17" t="n">
-        <v>170.0245554349354</v>
+        <v>170.0245554349355</v>
       </c>
       <c r="K17" t="n">
         <v>254.8227342777557</v>
@@ -32244,19 +32244,19 @@
         <v>316.1301348390824</v>
       </c>
       <c r="M17" t="n">
-        <v>351.7556867643364</v>
+        <v>351.7556867643365</v>
       </c>
       <c r="N17" t="n">
-        <v>357.4474615254317</v>
+        <v>357.4474615254318</v>
       </c>
       <c r="O17" t="n">
         <v>337.5275019018009</v>
       </c>
       <c r="P17" t="n">
-        <v>288.0719138984433</v>
+        <v>288.0719138984434</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.3300102885094</v>
+        <v>216.3300102885095</v>
       </c>
       <c r="R17" t="n">
         <v>125.8375526041887</v>
@@ -32268,7 +32268,7 @@
         <v>8.769289579126992</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1602611459349306</v>
+        <v>0.1602611459349307</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>10.35172665483414</v>
       </c>
       <c r="I18" t="n">
-        <v>36.90329438712443</v>
+        <v>36.90329438712444</v>
       </c>
       <c r="J18" t="n">
-        <v>101.2654604322353</v>
+        <v>101.2654604322354</v>
       </c>
       <c r="K18" t="n">
         <v>173.0788012039185</v>
@@ -32326,7 +32326,7 @@
         <v>271.5800403495768</v>
       </c>
       <c r="N18" t="n">
-        <v>278.7679559059989</v>
+        <v>278.767955905999</v>
       </c>
       <c r="O18" t="n">
         <v>255.0182179131642</v>
@@ -32338,16 +32338,16 @@
         <v>136.8195515723401</v>
       </c>
       <c r="R18" t="n">
-        <v>66.54815736867944</v>
+        <v>66.54815736867945</v>
       </c>
       <c r="S18" t="n">
         <v>19.90897474260788</v>
       </c>
       <c r="T18" t="n">
-        <v>4.32027102442896</v>
+        <v>4.320271024428961</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07051584914737155</v>
+        <v>0.07051584914737156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8985954109927342</v>
+        <v>0.8985954109927343</v>
       </c>
       <c r="H19" t="n">
-        <v>7.989330108644498</v>
+        <v>7.989330108644499</v>
       </c>
       <c r="I19" t="n">
         <v>27.02321472330878</v>
@@ -32411,7 +32411,7 @@
         <v>127.0123768192276</v>
       </c>
       <c r="P19" t="n">
-        <v>108.6810304349757</v>
+        <v>108.6810304349758</v>
       </c>
       <c r="Q19" t="n">
         <v>75.24511209685524</v>
@@ -32423,7 +32423,7 @@
         <v>15.6600672988461</v>
       </c>
       <c r="T19" t="n">
-        <v>3.839453119696227</v>
+        <v>3.839453119696228</v>
       </c>
       <c r="U19" t="n">
         <v>0.04901429514505829</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.003264324186633</v>
+        <v>2.003264324186634</v>
       </c>
       <c r="H20" t="n">
-        <v>20.51593076007636</v>
+        <v>20.51593076007637</v>
       </c>
       <c r="I20" t="n">
-        <v>77.23084785820525</v>
+        <v>77.23084785820527</v>
       </c>
       <c r="J20" t="n">
-        <v>170.0245554349354</v>
+        <v>170.0245554349355</v>
       </c>
       <c r="K20" t="n">
-        <v>254.8227342777556</v>
+        <v>254.8227342777557</v>
       </c>
       <c r="L20" t="n">
         <v>316.1301348390824</v>
       </c>
       <c r="M20" t="n">
-        <v>351.7556867643364</v>
+        <v>351.7556867643365</v>
       </c>
       <c r="N20" t="n">
-        <v>357.4474615254317</v>
+        <v>357.4474615254318</v>
       </c>
       <c r="O20" t="n">
         <v>337.5275019018009</v>
       </c>
       <c r="P20" t="n">
-        <v>288.0719138984433</v>
+        <v>288.0719138984434</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.3300102885094</v>
+        <v>216.3300102885095</v>
       </c>
       <c r="R20" t="n">
         <v>125.8375526041887</v>
       </c>
       <c r="S20" t="n">
-        <v>45.64938578740295</v>
+        <v>45.64938578740296</v>
       </c>
       <c r="T20" t="n">
-        <v>8.76928957912699</v>
+        <v>8.769289579126992</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1602611459349306</v>
+        <v>0.1602611459349307</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>10.35172665483414</v>
       </c>
       <c r="I21" t="n">
-        <v>36.90329438712443</v>
+        <v>36.90329438712444</v>
       </c>
       <c r="J21" t="n">
-        <v>101.2654604322353</v>
+        <v>101.2654604322354</v>
       </c>
       <c r="K21" t="n">
         <v>173.0788012039185</v>
@@ -32563,28 +32563,28 @@
         <v>271.5800403495768</v>
       </c>
       <c r="N21" t="n">
-        <v>278.7679559059989</v>
+        <v>278.767955905999</v>
       </c>
       <c r="O21" t="n">
         <v>255.0182179131642</v>
       </c>
       <c r="P21" t="n">
-        <v>204.6746026785507</v>
+        <v>204.6746026785508</v>
       </c>
       <c r="Q21" t="n">
         <v>136.8195515723401</v>
       </c>
       <c r="R21" t="n">
-        <v>66.54815736867944</v>
+        <v>66.54815736867945</v>
       </c>
       <c r="S21" t="n">
         <v>19.90897474260788</v>
       </c>
       <c r="T21" t="n">
-        <v>4.32027102442896</v>
+        <v>4.320271024428961</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07051584914737154</v>
+        <v>0.07051584914737156</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8985954109927341</v>
+        <v>0.8985954109927343</v>
       </c>
       <c r="H22" t="n">
-        <v>7.989330108644497</v>
+        <v>7.989330108644499</v>
       </c>
       <c r="I22" t="n">
         <v>27.02321472330878</v>
       </c>
       <c r="J22" t="n">
-        <v>63.5306955571863</v>
+        <v>63.53069555718631</v>
       </c>
       <c r="K22" t="n">
         <v>104.400448658974</v>
       </c>
       <c r="L22" t="n">
-        <v>133.596630467047</v>
+        <v>133.5966304670471</v>
       </c>
       <c r="M22" t="n">
         <v>140.8589151977065</v>
       </c>
       <c r="N22" t="n">
-        <v>137.5096050294609</v>
+        <v>137.509605029461</v>
       </c>
       <c r="O22" t="n">
         <v>127.0123768192276</v>
       </c>
       <c r="P22" t="n">
-        <v>108.6810304349757</v>
+        <v>108.6810304349758</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.24511209685522</v>
+        <v>75.24511209685524</v>
       </c>
       <c r="R22" t="n">
         <v>40.40411729790966</v>
@@ -32660,10 +32660,10 @@
         <v>15.6600672988461</v>
       </c>
       <c r="T22" t="n">
-        <v>3.839453119696227</v>
+        <v>3.839453119696228</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04901429514505828</v>
+        <v>0.04901429514505829</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>77.23084785820527</v>
       </c>
       <c r="J44" t="n">
-        <v>170.0245554349355</v>
+        <v>170.0245554349352</v>
       </c>
       <c r="K44" t="n">
         <v>254.8227342777557</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>96.70096410162751</v>
+        <v>96.70096410162753</v>
       </c>
       <c r="K11" t="n">
         <v>165.6863446045386</v>
@@ -35427,13 +35427,13 @@
         <v>244.3377262760179</v>
       </c>
       <c r="P11" t="n">
-        <v>194.4225506175592</v>
+        <v>194.4225506175593</v>
       </c>
       <c r="Q11" t="n">
         <v>126.2962058893575</v>
       </c>
       <c r="R11" t="n">
-        <v>38.52540978946523</v>
+        <v>38.52540978946524</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.89622163223536</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K12" t="n">
         <v>117.2530184193031</v>
       </c>
       <c r="L12" t="n">
-        <v>406.5098024029588</v>
+        <v>176.6112836585262</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0243682444744</v>
+        <v>214.0157566111595</v>
       </c>
       <c r="N12" t="n">
         <v>225.574562512249</v>
@@ -35509,10 +35509,10 @@
         <v>150.4149676757471</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.12693306750137</v>
+        <v>224.9043624607706</v>
       </c>
       <c r="R12" t="n">
-        <v>7.547958263274047</v>
+        <v>7.547958263274062</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.0975498742309</v>
+        <v>12.09754987423091</v>
       </c>
       <c r="K13" t="n">
         <v>52.15007909990722</v>
       </c>
       <c r="L13" t="n">
-        <v>396.1189539822598</v>
+        <v>78.96833657314562</v>
       </c>
       <c r="M13" t="n">
         <v>406.5098024029588</v>
       </c>
       <c r="N13" t="n">
-        <v>286.7565990471163</v>
+        <v>406.5098024029588</v>
       </c>
       <c r="O13" t="n">
         <v>389.1948114924339</v>
       </c>
       <c r="P13" t="n">
-        <v>52.90118879507099</v>
+        <v>250.2986028483425</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.88558643692969</v>
+        <v>13.8855864369297</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>165.6863446045386</v>
       </c>
       <c r="L14" t="n">
-        <v>220.6447367762377</v>
+        <v>220.6447367762376</v>
       </c>
       <c r="M14" t="n">
-        <v>258.4654623072911</v>
+        <v>258.465462307291</v>
       </c>
       <c r="N14" t="n">
         <v>264.5351707688125</v>
       </c>
       <c r="O14" t="n">
-        <v>244.3377262760179</v>
+        <v>244.3377262760178</v>
       </c>
       <c r="P14" t="n">
         <v>194.4225506175592</v>
       </c>
       <c r="Q14" t="n">
-        <v>126.2962058893575</v>
+        <v>126.2962058893574</v>
       </c>
       <c r="R14" t="n">
-        <v>38.52540978946523</v>
+        <v>38.52540978946521</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.36218892116221</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.89622163223536</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K15" t="n">
         <v>117.2530184193031</v>
       </c>
       <c r="L15" t="n">
-        <v>176.6112836585262</v>
+        <v>176.6112836585261</v>
       </c>
       <c r="M15" t="n">
-        <v>214.0157566111595</v>
+        <v>214.0157566111594</v>
       </c>
       <c r="N15" t="n">
         <v>225.574562512249</v>
       </c>
       <c r="O15" t="n">
-        <v>197.2667389131643</v>
+        <v>197.2667389131642</v>
       </c>
       <c r="P15" t="n">
-        <v>150.4149676757471</v>
+        <v>206.3340975973182</v>
       </c>
       <c r="Q15" t="n">
-        <v>365.813575052388</v>
+        <v>80.12693306750137</v>
       </c>
       <c r="R15" t="n">
         <v>96.40625773497229</v>
@@ -35807,10 +35807,10 @@
         <v>77.75549293618684</v>
       </c>
       <c r="K16" t="n">
-        <v>52.15007909990722</v>
+        <v>56.34009533785196</v>
       </c>
       <c r="L16" t="n">
-        <v>396.1189539822598</v>
+        <v>78.96833657314559</v>
       </c>
       <c r="M16" t="n">
         <v>406.5098024029587</v>
@@ -35819,10 +35819,10 @@
         <v>406.5098024029587</v>
       </c>
       <c r="O16" t="n">
-        <v>76.23421032126431</v>
+        <v>389.1948114924338</v>
       </c>
       <c r="P16" t="n">
-        <v>52.90118879507099</v>
+        <v>52.90118879507097</v>
       </c>
       <c r="Q16" t="n">
         <v>141.4350411903005</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.70096410162748</v>
+        <v>96.70096410162751</v>
       </c>
       <c r="K17" t="n">
-        <v>165.6863446045385</v>
+        <v>165.6863446045386</v>
       </c>
       <c r="L17" t="n">
         <v>220.6447367762376</v>
@@ -35895,10 +35895,10 @@
         <v>258.465462307291</v>
       </c>
       <c r="N17" t="n">
-        <v>264.5351707688124</v>
+        <v>264.5351707688125</v>
       </c>
       <c r="O17" t="n">
-        <v>244.3377262760177</v>
+        <v>244.3377262760178</v>
       </c>
       <c r="P17" t="n">
         <v>194.4225506175592</v>
@@ -35907,7 +35907,7 @@
         <v>126.2962058893574</v>
       </c>
       <c r="R17" t="n">
-        <v>38.5254097894652</v>
+        <v>38.52540978946521</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>16.36218892116221</v>
       </c>
       <c r="J18" t="n">
-        <v>49.89622163223533</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K18" t="n">
         <v>117.2530184193031</v>
       </c>
       <c r="L18" t="n">
-        <v>253.0548621536184</v>
+        <v>216.1682246589349</v>
       </c>
       <c r="M18" t="n">
         <v>214.0157566111594</v>
       </c>
       <c r="N18" t="n">
-        <v>225.5745625122489</v>
+        <v>225.574562512249</v>
       </c>
       <c r="O18" t="n">
-        <v>406.5098024029585</v>
+        <v>197.2667389131642</v>
       </c>
       <c r="P18" t="n">
-        <v>150.414967675747</v>
+        <v>150.4149676757471</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.12693306750134</v>
+        <v>80.12693306750137</v>
       </c>
       <c r="R18" t="n">
-        <v>96.40625773497226</v>
+        <v>96.40625773497229</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>260.513911004669</v>
       </c>
       <c r="L19" t="n">
-        <v>78.96833657314556</v>
+        <v>396.1189539822598</v>
       </c>
       <c r="M19" t="n">
-        <v>257.0605078933359</v>
+        <v>84.59397269892648</v>
       </c>
       <c r="N19" t="n">
-        <v>406.5098024029585</v>
+        <v>85.79695952104153</v>
       </c>
       <c r="O19" t="n">
-        <v>70.93747874623128</v>
+        <v>389.1948114924338</v>
       </c>
       <c r="P19" t="n">
-        <v>316.4340003840791</v>
+        <v>301.75488305846</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.4350411903005</v>
+        <v>13.88558643692967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.70096410162745</v>
+        <v>96.70096410162751</v>
       </c>
       <c r="K20" t="n">
-        <v>165.6863446045385</v>
+        <v>165.6863446045386</v>
       </c>
       <c r="L20" t="n">
         <v>220.6447367762376</v>
@@ -36132,10 +36132,10 @@
         <v>258.465462307291</v>
       </c>
       <c r="N20" t="n">
-        <v>264.5351707688124</v>
+        <v>264.5351707688125</v>
       </c>
       <c r="O20" t="n">
-        <v>244.3377262760177</v>
+        <v>244.3377262760178</v>
       </c>
       <c r="P20" t="n">
         <v>194.4225506175592</v>
@@ -36144,7 +36144,7 @@
         <v>126.2962058893574</v>
       </c>
       <c r="R20" t="n">
-        <v>38.52540978946519</v>
+        <v>38.52540978946521</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>16.36218892116221</v>
       </c>
       <c r="J21" t="n">
-        <v>49.89622163223532</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K21" t="n">
-        <v>406.5098024029586</v>
+        <v>117.2530184193031</v>
       </c>
       <c r="L21" t="n">
         <v>176.6112836585261</v>
@@ -36211,19 +36211,19 @@
         <v>214.0157566111594</v>
       </c>
       <c r="N21" t="n">
-        <v>225.5745625122489</v>
+        <v>225.574562512249</v>
       </c>
       <c r="O21" t="n">
         <v>197.2667389131642</v>
       </c>
       <c r="P21" t="n">
-        <v>150.414967675747</v>
+        <v>150.4149676757471</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.415090540431</v>
+        <v>119.6838740679097</v>
       </c>
       <c r="R21" t="n">
-        <v>7.547958263274033</v>
+        <v>96.40625773497229</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.75549293618683</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K22" t="n">
-        <v>260.5139110046689</v>
+        <v>179.1780696927165</v>
       </c>
       <c r="L22" t="n">
-        <v>193.051853652531</v>
+        <v>78.96833657314559</v>
       </c>
       <c r="M22" t="n">
-        <v>406.5098024029586</v>
+        <v>406.5098024029585</v>
       </c>
       <c r="N22" t="n">
-        <v>406.5098024029586</v>
+        <v>85.79695952104153</v>
       </c>
       <c r="O22" t="n">
-        <v>70.93747874623128</v>
+        <v>389.1948114924338</v>
       </c>
       <c r="P22" t="n">
-        <v>52.90118879507094</v>
+        <v>316.4340003840791</v>
       </c>
       <c r="Q22" t="n">
         <v>141.4350411903005</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.36218892116221</v>
       </c>
       <c r="J24" t="n">
         <v>49.89622163223535</v>
@@ -36442,7 +36442,7 @@
         <v>117.2530184193031</v>
       </c>
       <c r="L24" t="n">
-        <v>358.2753505464787</v>
+        <v>176.6112836585261</v>
       </c>
       <c r="M24" t="n">
         <v>214.0157566111594</v>
@@ -36451,16 +36451,16 @@
         <v>225.574562512249</v>
       </c>
       <c r="O24" t="n">
-        <v>406.5098024029585</v>
+        <v>197.2667389131642</v>
       </c>
       <c r="P24" t="n">
         <v>150.4149676757471</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.12693306750137</v>
+        <v>365.8135750523883</v>
       </c>
       <c r="R24" t="n">
-        <v>7.547958263274047</v>
+        <v>96.40625773497229</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.09754987423089</v>
+        <v>77.75549293618684</v>
       </c>
       <c r="K25" t="n">
         <v>260.513911004669</v>
       </c>
       <c r="L25" t="n">
-        <v>396.1189539822598</v>
+        <v>78.96833657314559</v>
       </c>
       <c r="M25" t="n">
-        <v>406.5098024029585</v>
+        <v>84.59397269892648</v>
       </c>
       <c r="N25" t="n">
-        <v>85.79695952104153</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="O25" t="n">
-        <v>254.2411643603754</v>
+        <v>243.404013940641</v>
       </c>
       <c r="P25" t="n">
-        <v>52.90118879507097</v>
+        <v>316.4340003840791</v>
       </c>
       <c r="Q25" t="n">
         <v>141.4350411903005</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>96.70096410162751</v>
+        <v>96.70096410162795</v>
       </c>
       <c r="K26" t="n">
         <v>165.6863446045386</v>
@@ -36676,10 +36676,10 @@
         <v>49.89622163223535</v>
       </c>
       <c r="K27" t="n">
-        <v>406.5098024029587</v>
+        <v>117.2530184193031</v>
       </c>
       <c r="L27" t="n">
-        <v>278.261630052618</v>
+        <v>176.6112836585261</v>
       </c>
       <c r="M27" t="n">
         <v>214.0157566111594</v>
@@ -36694,10 +36694,10 @@
         <v>150.4149676757471</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.12693306750137</v>
+        <v>382.1757639735508</v>
       </c>
       <c r="R27" t="n">
-        <v>7.547958263274047</v>
+        <v>96.40625773497229</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K28" t="n">
-        <v>260.513911004669</v>
+        <v>52.1500790999072</v>
       </c>
       <c r="L28" t="n">
-        <v>320.6013084059017</v>
+        <v>396.1189539822598</v>
       </c>
       <c r="M28" t="n">
         <v>406.5098024029587</v>
@@ -36767,7 +36767,7 @@
         <v>406.5098024029587</v>
       </c>
       <c r="O28" t="n">
-        <v>70.93747874623131</v>
+        <v>269.4416081365911</v>
       </c>
       <c r="P28" t="n">
         <v>52.90118879507097</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.36218892116221</v>
       </c>
       <c r="J30" t="n">
-        <v>49.89622163223535</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K30" t="n">
         <v>117.2530184193031</v>
@@ -36919,19 +36919,19 @@
         <v>176.6112836585261</v>
       </c>
       <c r="M30" t="n">
-        <v>306.8215240274138</v>
+        <v>214.0157566111594</v>
       </c>
       <c r="N30" t="n">
         <v>225.574562512249</v>
       </c>
       <c r="O30" t="n">
-        <v>406.5098024029585</v>
+        <v>197.2667389131642</v>
       </c>
       <c r="P30" t="n">
         <v>150.4149676757471</v>
       </c>
       <c r="Q30" t="n">
-        <v>80.12693306750137</v>
+        <v>119.6838740679104</v>
       </c>
       <c r="R30" t="n">
         <v>96.40625773497229</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K31" t="n">
-        <v>260.513911004669</v>
+        <v>52.1500790999072</v>
       </c>
       <c r="L31" t="n">
-        <v>320.6013084059017</v>
+        <v>396.1189539822598</v>
       </c>
       <c r="M31" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="N31" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="O31" t="n">
-        <v>70.93747874623131</v>
+        <v>269.4416081365911</v>
       </c>
       <c r="P31" t="n">
         <v>52.90118879507097</v>
@@ -37077,7 +37077,7 @@
         <v>220.6447367762376</v>
       </c>
       <c r="M32" t="n">
-        <v>258.465462307291</v>
+        <v>258.4654623072915</v>
       </c>
       <c r="N32" t="n">
         <v>264.5351707688125</v>
@@ -37153,22 +37153,22 @@
         <v>117.2530184193031</v>
       </c>
       <c r="L33" t="n">
-        <v>406.5098024029587</v>
+        <v>176.6112836585261</v>
       </c>
       <c r="M33" t="n">
         <v>214.0157566111594</v>
       </c>
       <c r="N33" t="n">
-        <v>225.574562512249</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="O33" t="n">
         <v>197.2667389131642</v>
       </c>
       <c r="P33" t="n">
-        <v>206.2030909162014</v>
+        <v>150.4149676757471</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.12693306750137</v>
+        <v>184.8783351616788</v>
       </c>
       <c r="R33" t="n">
         <v>96.40625773497229</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K34" t="n">
         <v>260.513911004669</v>
       </c>
       <c r="L34" t="n">
-        <v>193.051853652531</v>
+        <v>78.96833657314559</v>
       </c>
       <c r="M34" t="n">
-        <v>406.5098024029587</v>
+        <v>395.5433845514685</v>
       </c>
       <c r="N34" t="n">
         <v>406.5098024029587</v>
       </c>
       <c r="O34" t="n">
-        <v>70.93747874623131</v>
+        <v>389.1948114924338</v>
       </c>
       <c r="P34" t="n">
         <v>52.90118879507097</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.4350411903005</v>
+        <v>13.88558643692967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>16.36218892116221</v>
       </c>
       <c r="J36" t="n">
-        <v>49.89622163223535</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K36" t="n">
-        <v>402.9396604041895</v>
+        <v>117.2530184193031</v>
       </c>
       <c r="L36" t="n">
         <v>176.6112836585261</v>
@@ -37405,7 +37405,7 @@
         <v>150.4149676757471</v>
       </c>
       <c r="Q36" t="n">
-        <v>80.12693306750137</v>
+        <v>119.6838740679102</v>
       </c>
       <c r="R36" t="n">
         <v>96.40625773497229</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K37" t="n">
-        <v>260.513911004669</v>
+        <v>52.1500790999072</v>
       </c>
       <c r="L37" t="n">
-        <v>193.051853652531</v>
+        <v>396.1189539822598</v>
       </c>
       <c r="M37" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="N37" t="n">
-        <v>406.5098024029585</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="O37" t="n">
-        <v>70.93747874623131</v>
+        <v>269.4416081365909</v>
       </c>
       <c r="P37" t="n">
         <v>52.90118879507097</v>
       </c>
       <c r="Q37" t="n">
-        <v>141.4350411903005</v>
+        <v>13.88558643692967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.36218892116221</v>
       </c>
       <c r="J39" t="n">
-        <v>49.89622163223535</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K39" t="n">
-        <v>406.5098024029585</v>
+        <v>156.8099594197119</v>
       </c>
       <c r="L39" t="n">
         <v>176.6112836585261</v>
@@ -37633,7 +37633,7 @@
         <v>214.0157566111594</v>
       </c>
       <c r="N39" t="n">
-        <v>238.3666094346421</v>
+        <v>225.574562512249</v>
       </c>
       <c r="O39" t="n">
         <v>197.2667389131642</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K40" t="n">
-        <v>260.513911004669</v>
+        <v>52.1500790999072</v>
       </c>
       <c r="L40" t="n">
-        <v>396.1189539822598</v>
+        <v>331.0902717836115</v>
       </c>
       <c r="M40" t="n">
-        <v>388.1721881195095</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="N40" t="n">
-        <v>85.79695952104153</v>
+        <v>406.5098024029587</v>
       </c>
       <c r="O40" t="n">
         <v>70.93747874623131</v>
@@ -37858,16 +37858,16 @@
         <v>16.36218892116221</v>
       </c>
       <c r="J42" t="n">
-        <v>49.89622163223535</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K42" t="n">
-        <v>117.2530184193031</v>
+        <v>156.8099594197114</v>
       </c>
       <c r="L42" t="n">
-        <v>358.6621793233121</v>
+        <v>176.6112836585261</v>
       </c>
       <c r="M42" t="n">
-        <v>406.5098024029587</v>
+        <v>214.0157566111594</v>
       </c>
       <c r="N42" t="n">
         <v>225.574562512249</v>
@@ -37882,7 +37882,7 @@
         <v>80.12693306750137</v>
       </c>
       <c r="R42" t="n">
-        <v>7.547958263274047</v>
+        <v>96.40625773497229</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.75549293618684</v>
+        <v>12.09754987423089</v>
       </c>
       <c r="K43" t="n">
         <v>52.1500790999072</v>
       </c>
       <c r="L43" t="n">
-        <v>396.1189539822598</v>
+        <v>276.3657506264168</v>
       </c>
       <c r="M43" t="n">
-        <v>84.59397269892648</v>
+        <v>406.5098024029585</v>
       </c>
       <c r="N43" t="n">
-        <v>151.9322193468134</v>
+        <v>406.5098024029585</v>
       </c>
       <c r="O43" t="n">
         <v>389.1948114924338</v>
       </c>
       <c r="P43" t="n">
-        <v>316.4340003840791</v>
+        <v>52.90118879507097</v>
       </c>
       <c r="Q43" t="n">
-        <v>141.4350411903005</v>
+        <v>13.88558643692967</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.70096410162751</v>
+        <v>96.70096410162729</v>
       </c>
       <c r="K44" t="n">
         <v>165.6863446045386</v>
@@ -38095,7 +38095,7 @@
         <v>16.36218892116221</v>
       </c>
       <c r="J45" t="n">
-        <v>49.89622163223535</v>
+        <v>296.0259226167134</v>
       </c>
       <c r="K45" t="n">
         <v>117.2530184193031</v>
@@ -38110,13 +38110,13 @@
         <v>225.574562512249</v>
       </c>
       <c r="O45" t="n">
-        <v>406.5098024029585</v>
+        <v>197.2667389131642</v>
       </c>
       <c r="P45" t="n">
-        <v>226.8585461708392</v>
+        <v>150.4149676757471</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.12693306750137</v>
+        <v>119.6838740679097</v>
       </c>
       <c r="R45" t="n">
         <v>96.40625773497229</v>
@@ -38177,19 +38177,19 @@
         <v>12.09754987423089</v>
       </c>
       <c r="K46" t="n">
-        <v>260.513911004669</v>
+        <v>52.1500790999072</v>
       </c>
       <c r="L46" t="n">
-        <v>122.7264398788496</v>
+        <v>78.96833657314559</v>
       </c>
       <c r="M46" t="n">
         <v>406.5098024029585</v>
       </c>
       <c r="N46" t="n">
-        <v>406.5098024029585</v>
+        <v>340.3744048672216</v>
       </c>
       <c r="O46" t="n">
-        <v>70.93747874623131</v>
+        <v>389.1948114924338</v>
       </c>
       <c r="P46" t="n">
         <v>316.4340003840791</v>
